--- a/Excel/Hasil_Pengujian_Map_4_128_avg_length.xlsx
+++ b/Excel/Hasil_Pengujian_Map_4_128_avg_length.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SEMHAS\TA_Python_Server\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SEMHAS\TA_Python_Server\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40A89EF9-DC03-4BFA-87E8-34996C6CDD5F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3DE25E45-9DD6-40D5-BC60-89E91D718E4B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -323,6 +323,1343 @@
 </styleSheet>
 </file>
 
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Jumlah Belok'!$B$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>A*</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Jumlah Belok'!$C$1:$F$1</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>128</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Jumlah Belok'!$C$2:$F$2</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>42</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-2603-4B2E-85A1-976579BEA1BE}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Jumlah Belok'!$B$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>PPO</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Jumlah Belok'!$C$1:$F$1</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>128</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Jumlah Belok'!$C$3:$F$3</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-2603-4B2E-85A1-976579BEA1BE}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Jumlah Belok'!$B$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>JPS</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Jumlah Belok'!$C$1:$F$1</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>128</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Jumlah Belok'!$C$4:$F$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-2603-4B2E-85A1-976579BEA1BE}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Jumlah Belok'!$B$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>GL</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent4"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Jumlah Belok'!$C$1:$F$1</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>128</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Jumlah Belok'!$C$5:$F$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-2603-4B2E-85A1-976579BEA1BE}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Jumlah Belok'!$B$6</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>BDS</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent5"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Jumlah Belok'!$C$1:$F$1</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>128</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Jumlah Belok'!$C$6:$F$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-2603-4B2E-85A1-976579BEA1BE}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Jumlah Belok'!$B$7</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>TPF</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent6"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Jumlah Belok'!$C$1:$F$1</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>128</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Jumlah Belok'!$C$7:$F$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>22</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-2603-4B2E-85A1-976579BEA1BE}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="6"/>
+          <c:order val="6"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Jumlah Belok'!$B$8</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>BRC</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1">
+                <a:lumMod val="60000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Jumlah Belok'!$C$1:$F$1</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>128</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Jumlah Belok'!$C$8:$F$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>23</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000006-2603-4B2E-85A1-976579BEA1BE}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="504968207"/>
+        <c:axId val="504970127"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="504968207"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="504970127"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="504970127"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="504968207"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>419100</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7811B7AC-29A6-C30A-FB3B-60FD7F5A093B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -611,7 +1948,7 @@
   <dimension ref="A1:G65"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K13" sqref="K13"/>
+      <selection activeCell="I18" sqref="I18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -645,278 +1982,278 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>30</v>
+        <v>7</v>
       </c>
       <c r="C2">
-        <v>4.3779999999999991E-4</v>
+        <v>8.2129999999999996E-4</v>
       </c>
       <c r="D2">
-        <v>1.0556000000000001E-3</v>
+        <v>5.8412000000000004E-3</v>
       </c>
       <c r="E2">
-        <v>2.7057000000000001E-3</v>
+        <v>5.0274399999999997E-2</v>
       </c>
       <c r="F2">
-        <v>7.5819999999999976E-3</v>
+        <v>0.3459566</v>
       </c>
       <c r="G2">
-        <v>2.9452749999999998E-3</v>
+        <v>0.100723375</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="C3">
-        <v>4.1730000000000001E-4</v>
+        <v>2.6420000000000003E-4</v>
       </c>
       <c r="D3">
-        <v>1.0215999999999999E-3</v>
+        <v>9.794999999999999E-4</v>
       </c>
       <c r="E3">
-        <v>2.6044000000000002E-3</v>
+        <v>4.0574999999999986E-3</v>
       </c>
       <c r="F3">
-        <v>7.7813999999999991E-3</v>
+        <v>1.6627300000000001E-2</v>
       </c>
       <c r="G3">
-        <v>2.9561750000000001E-3</v>
+        <v>5.482125E-3</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B4" t="s">
-        <v>49</v>
+        <v>9</v>
       </c>
       <c r="C4">
-        <v>4.7590000000000002E-4</v>
+        <v>3.994E-4</v>
       </c>
       <c r="D4">
-        <v>1.1734E-3</v>
+        <v>1.2551999999999999E-3</v>
       </c>
       <c r="E4">
-        <v>3.0314999999999999E-3</v>
+        <v>4.9544999999999997E-3</v>
       </c>
       <c r="F4">
-        <v>8.4294999999999995E-3</v>
+        <v>2.4652299999999999E-2</v>
       </c>
       <c r="G4">
-        <v>3.277575E-3</v>
+        <v>7.8153500000000004E-3</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B5" t="s">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="C5">
-        <v>4.5090000000000001E-4</v>
+        <v>6.2369999999999993E-4</v>
       </c>
       <c r="D5">
-        <v>1.1095E-3</v>
+        <v>3.6500999999999999E-3</v>
       </c>
       <c r="E5">
-        <v>2.9009999999999999E-3</v>
+        <v>2.4654599999999999E-2</v>
       </c>
       <c r="F5">
-        <v>1.0358900000000001E-2</v>
+        <v>0.16601550000000001</v>
       </c>
       <c r="G5">
-        <v>3.7050749999999999E-3</v>
+        <v>4.8735975000000001E-2</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B6" t="s">
-        <v>45</v>
+        <v>11</v>
       </c>
       <c r="C6">
-        <v>3.9869999999999988E-4</v>
+        <v>6.355E-4</v>
       </c>
       <c r="D6">
-        <v>1.2049999999999999E-3</v>
+        <v>2.5883999999999998E-3</v>
       </c>
       <c r="E6">
-        <v>3.8639E-3</v>
+        <v>8.2772000000000019E-3</v>
       </c>
       <c r="F6">
-        <v>1.43263E-2</v>
+        <v>3.3306000000000002E-2</v>
       </c>
       <c r="G6">
-        <v>4.9484750000000008E-3</v>
+        <v>1.1201775000000001E-2</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B7" t="s">
-        <v>62</v>
+        <v>12</v>
       </c>
       <c r="C7">
-        <v>4.104E-4</v>
+        <v>8.5330000000000009E-4</v>
       </c>
       <c r="D7">
-        <v>1.235E-3</v>
+        <v>6.0492999999999996E-3</v>
       </c>
       <c r="E7">
-        <v>3.8451000000000002E-3</v>
+        <v>5.0293900000000002E-2</v>
       </c>
       <c r="F7">
-        <v>1.44146E-2</v>
+        <v>0.34812510000000002</v>
       </c>
       <c r="G7">
-        <v>4.9762749999999996E-3</v>
+        <v>0.1013304</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="B8" t="s">
-        <v>69</v>
+        <v>13</v>
       </c>
       <c r="C8">
-        <v>4.4539999999999998E-4</v>
+        <v>1.0300999999999999E-3</v>
       </c>
       <c r="D8">
-        <v>1.24E-3</v>
+        <v>6.9851999999999996E-3</v>
       </c>
       <c r="E8">
-        <v>3.9023E-3</v>
+        <v>5.16058E-2</v>
       </c>
       <c r="F8">
-        <v>1.44753E-2</v>
+        <v>0.35120089999999998</v>
       </c>
       <c r="G8">
-        <v>5.0157500000000002E-3</v>
+        <v>0.10270550000000001</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B9" t="s">
-        <v>61</v>
+        <v>14</v>
       </c>
       <c r="C9">
-        <v>4.2910000000000008E-4</v>
+        <v>4.1730000000000001E-4</v>
       </c>
       <c r="D9">
-        <v>1.2449E-3</v>
+        <v>1.0215999999999999E-3</v>
       </c>
       <c r="E9">
-        <v>3.9409999999999992E-3</v>
+        <v>2.6044000000000002E-3</v>
       </c>
       <c r="F9">
-        <v>1.46222E-2</v>
+        <v>7.7813999999999991E-3</v>
       </c>
       <c r="G9">
-        <v>5.0592999999999992E-3</v>
+        <v>2.9561750000000001E-3</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B10" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="C10">
-        <v>2.6420000000000003E-4</v>
+        <v>3.5300000000000002E-4</v>
       </c>
       <c r="D10">
-        <v>9.794999999999999E-4</v>
+        <v>1.3351999999999999E-3</v>
       </c>
       <c r="E10">
-        <v>4.0574999999999986E-3</v>
+        <v>5.4406999999999997E-3</v>
       </c>
       <c r="F10">
-        <v>1.6627300000000001E-2</v>
+        <v>2.29409E-2</v>
       </c>
       <c r="G10">
-        <v>5.482125E-3</v>
+        <v>7.5174500000000002E-3</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B11" t="s">
-        <v>44</v>
+        <v>16</v>
       </c>
       <c r="C11">
-        <v>3.6699999999999998E-4</v>
+        <v>3.1990000000000002E-4</v>
       </c>
       <c r="D11">
-        <v>1.0801000000000001E-3</v>
+        <v>1.1119000000000001E-3</v>
       </c>
       <c r="E11">
-        <v>3.8421000000000002E-3</v>
+        <v>4.2827000000000004E-3</v>
       </c>
       <c r="F11">
-        <v>1.6745800000000002E-2</v>
+        <v>1.77498E-2</v>
       </c>
       <c r="G11">
-        <v>5.5087499999999998E-3</v>
+        <v>5.866075000000001E-3</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B12" t="s">
-        <v>43</v>
+        <v>17</v>
       </c>
       <c r="C12">
-        <v>3.9449999999999999E-4</v>
+        <v>3.4870000000000002E-4</v>
       </c>
       <c r="D12">
-        <v>1.1393E-3</v>
+        <v>1.1394E-3</v>
       </c>
       <c r="E12">
-        <v>3.9068999999999996E-3</v>
+        <v>4.4199E-3</v>
       </c>
       <c r="F12">
-        <v>1.6859499999999999E-2</v>
+        <v>1.7041000000000001E-2</v>
       </c>
       <c r="G12">
-        <v>5.5750499999999998E-3</v>
+        <v>5.7372499999999993E-3</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B13" t="s">
-        <v>60</v>
+        <v>18</v>
       </c>
       <c r="C13">
-        <v>4.0170000000000001E-4</v>
+        <v>4.4599999999999989E-4</v>
       </c>
       <c r="D13">
-        <v>1.1467999999999999E-3</v>
+        <v>1.3523000000000001E-3</v>
       </c>
       <c r="E13">
-        <v>3.9153000000000009E-3</v>
+        <v>5.3819999999999996E-3</v>
       </c>
       <c r="F13">
-        <v>1.6862800000000001E-2</v>
+        <v>2.61032E-2</v>
       </c>
       <c r="G13">
-        <v>5.5816499999999996E-3</v>
+        <v>8.3208750000000001E-3</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.3">
@@ -924,22 +2261,22 @@
         <v>2</v>
       </c>
       <c r="B14" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C14">
-        <v>3.4870000000000002E-4</v>
+        <v>4.771E-4</v>
       </c>
       <c r="D14">
-        <v>1.1394E-3</v>
+        <v>1.3458999999999999E-3</v>
       </c>
       <c r="E14">
-        <v>4.4199E-3</v>
+        <v>4.9420999999999996E-3</v>
       </c>
       <c r="F14">
-        <v>1.7041000000000001E-2</v>
+        <v>2.3280599999999999E-2</v>
       </c>
       <c r="G14">
-        <v>5.7372499999999993E-3</v>
+        <v>7.5114250000000004E-3</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.3">
@@ -947,22 +2284,22 @@
         <v>2</v>
       </c>
       <c r="B15" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="C15">
-        <v>3.1990000000000002E-4</v>
+        <v>6.5799999999999995E-4</v>
       </c>
       <c r="D15">
-        <v>1.1119000000000001E-3</v>
+        <v>2.4927E-3</v>
       </c>
       <c r="E15">
-        <v>4.2827000000000004E-3</v>
+        <v>1.2087199999999999E-2</v>
       </c>
       <c r="F15">
-        <v>1.77498E-2</v>
+        <v>6.86977E-2</v>
       </c>
       <c r="G15">
-        <v>5.866075000000001E-3</v>
+        <v>2.09839E-2</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.3">
@@ -970,229 +2307,229 @@
         <v>2</v>
       </c>
       <c r="B16" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C16">
-        <v>4.2450000000000013E-4</v>
+        <v>6.6390000000000004E-4</v>
       </c>
       <c r="D16">
-        <v>1.0746E-3</v>
+        <v>3.7580000000000001E-3</v>
       </c>
       <c r="E16">
-        <v>3.8156000000000002E-3</v>
+        <v>2.53799E-2</v>
       </c>
       <c r="F16">
-        <v>1.84881E-2</v>
+        <v>0.1650634</v>
       </c>
       <c r="G16">
-        <v>5.9506999999999997E-3</v>
+        <v>4.8716299999999997E-2</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B17" t="s">
-        <v>34</v>
+        <v>22</v>
       </c>
       <c r="C17">
-        <v>3.7889999999999999E-4</v>
+        <v>5.888E-4</v>
       </c>
       <c r="D17">
-        <v>1.2478999999999999E-3</v>
+        <v>3.2255999999999999E-3</v>
       </c>
       <c r="E17">
-        <v>4.7670000000000004E-3</v>
+        <v>2.2238000000000001E-2</v>
       </c>
       <c r="F17">
-        <v>1.79676E-2</v>
+        <v>0.154914</v>
       </c>
       <c r="G17">
-        <v>6.0903500000000013E-3</v>
+        <v>4.5241600000000007E-2</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B18" t="s">
-        <v>58</v>
+        <v>23</v>
       </c>
       <c r="C18">
-        <v>4.3950000000000011E-4</v>
+        <v>4.3120000000000002E-4</v>
       </c>
       <c r="D18">
-        <v>1.5931999999999999E-3</v>
+        <v>1.6272999999999999E-3</v>
       </c>
       <c r="E18">
-        <v>5.4063999999999996E-3</v>
+        <v>6.1433999999999994E-3</v>
       </c>
       <c r="F18">
-        <v>2.0717300000000001E-2</v>
+        <v>2.3925700000000001E-2</v>
       </c>
       <c r="G18">
-        <v>7.0391000000000004E-3</v>
+        <v>8.0318999999999998E-3</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B19" t="s">
-        <v>42</v>
+        <v>24</v>
       </c>
       <c r="C19">
-        <v>3.724E-4</v>
+        <v>4.2450000000000013E-4</v>
       </c>
       <c r="D19">
-        <v>1.4882000000000001E-3</v>
+        <v>1.0746E-3</v>
       </c>
       <c r="E19">
-        <v>5.3800000000000002E-3</v>
+        <v>3.8156000000000002E-3</v>
       </c>
       <c r="F19">
-        <v>2.1004100000000001E-2</v>
+        <v>1.84881E-2</v>
       </c>
       <c r="G19">
-        <v>7.0611750000000003E-3</v>
+        <v>5.9506999999999997E-3</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A20">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B20" t="s">
-        <v>59</v>
+        <v>25</v>
       </c>
       <c r="C20">
-        <v>4.1320000000000001E-4</v>
+        <v>5.5929999999999988E-4</v>
       </c>
       <c r="D20">
-        <v>1.536E-3</v>
+        <v>1.8683E-3</v>
       </c>
       <c r="E20">
-        <v>5.484000000000001E-3</v>
+        <v>6.6320000000000007E-3</v>
       </c>
       <c r="F20">
-        <v>2.1014399999999999E-2</v>
+        <v>2.5456199999999991E-2</v>
       </c>
       <c r="G20">
-        <v>7.1119E-3</v>
+        <v>8.6289499999999998E-3</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A21">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B21" t="s">
-        <v>55</v>
+        <v>26</v>
       </c>
       <c r="C21">
-        <v>4.2939999999999997E-4</v>
+        <v>6.6259999999999995E-4</v>
       </c>
       <c r="D21">
-        <v>1.5827E-3</v>
+        <v>2.8016999999999999E-3</v>
       </c>
       <c r="E21">
-        <v>5.6093999999999988E-3</v>
+        <v>8.369699999999999E-3</v>
       </c>
       <c r="F21">
-        <v>2.1062399999999998E-2</v>
+        <v>3.3627499999999998E-2</v>
       </c>
       <c r="G21">
-        <v>7.1709749999999996E-3</v>
+        <v>1.1365375E-2</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A22">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B22" t="s">
-        <v>68</v>
+        <v>27</v>
       </c>
       <c r="C22">
-        <v>4.7090000000000012E-4</v>
+        <v>6.5719999999999993E-4</v>
       </c>
       <c r="D22">
-        <v>1.6927000000000001E-3</v>
+        <v>2.1496000000000002E-3</v>
       </c>
       <c r="E22">
-        <v>5.5465999999999996E-3</v>
+        <v>7.9024999999999981E-3</v>
       </c>
       <c r="F22">
-        <v>2.1121600000000001E-2</v>
+        <v>3.2254400000000003E-2</v>
       </c>
       <c r="G22">
-        <v>7.2079499999999994E-3</v>
+        <v>1.0740925E-2</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A23">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B23" t="s">
-        <v>65</v>
+        <v>28</v>
       </c>
       <c r="C23">
-        <v>4.9719999999999994E-4</v>
+        <v>1.0554E-3</v>
       </c>
       <c r="D23">
-        <v>1.6561E-3</v>
+        <v>7.1461000000000007E-3</v>
       </c>
       <c r="E23">
-        <v>5.6768000000000001E-3</v>
+        <v>5.2188900000000003E-2</v>
       </c>
       <c r="F23">
-        <v>2.1208299999999999E-2</v>
+        <v>0.3518</v>
       </c>
       <c r="G23">
-        <v>7.2595999999999997E-3</v>
+        <v>0.1030476</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A24">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B24" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="C24">
-        <v>4.771E-4</v>
+        <v>4.5090000000000001E-4</v>
       </c>
       <c r="D24">
-        <v>1.3458999999999999E-3</v>
+        <v>1.1095E-3</v>
       </c>
       <c r="E24">
-        <v>4.9420999999999996E-3</v>
+        <v>2.9009999999999999E-3</v>
       </c>
       <c r="F24">
-        <v>2.3280599999999999E-2</v>
+        <v>1.0358900000000001E-2</v>
       </c>
       <c r="G24">
-        <v>7.5114250000000004E-3</v>
+        <v>3.7050749999999999E-3</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A25">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B25" t="s">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="C25">
-        <v>3.5300000000000002E-4</v>
+        <v>4.3779999999999991E-4</v>
       </c>
       <c r="D25">
-        <v>1.3351999999999999E-3</v>
+        <v>1.0556000000000001E-3</v>
       </c>
       <c r="E25">
-        <v>5.4406999999999997E-3</v>
+        <v>2.7057000000000001E-3</v>
       </c>
       <c r="F25">
-        <v>2.29409E-2</v>
+        <v>7.5819999999999976E-3</v>
       </c>
       <c r="G25">
-        <v>7.5174500000000002E-3</v>
+        <v>2.9452749999999998E-3</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.3">
@@ -1200,91 +2537,91 @@
         <v>3</v>
       </c>
       <c r="B26" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C26">
-        <v>3.6029999999999998E-4</v>
+        <v>7.118999999999999E-4</v>
       </c>
       <c r="D26">
-        <v>1.4606E-3</v>
+        <v>2.3173999999999998E-3</v>
       </c>
       <c r="E26">
-        <v>5.6709000000000013E-3</v>
+        <v>8.4971000000000005E-3</v>
       </c>
       <c r="F26">
-        <v>2.3449000000000001E-2</v>
+        <v>3.59745E-2</v>
       </c>
       <c r="G26">
-        <v>7.7351999999999994E-3</v>
+        <v>1.1875225E-2</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A27">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B27" t="s">
-        <v>9</v>
+        <v>32</v>
       </c>
       <c r="C27">
-        <v>3.994E-4</v>
+        <v>4.0739999999999987E-4</v>
       </c>
       <c r="D27">
-        <v>1.2551999999999999E-3</v>
+        <v>1.4502E-3</v>
       </c>
       <c r="E27">
-        <v>4.9544999999999997E-3</v>
+        <v>5.7404000000000014E-3</v>
       </c>
       <c r="F27">
-        <v>2.4652299999999999E-2</v>
+        <v>2.41018E-2</v>
       </c>
       <c r="G27">
-        <v>7.8153500000000004E-3</v>
+        <v>7.92495E-3</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A28">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B28" t="s">
-        <v>67</v>
+        <v>33</v>
       </c>
       <c r="C28">
-        <v>3.9859999999999999E-4</v>
+        <v>3.6029999999999998E-4</v>
       </c>
       <c r="D28">
-        <v>1.7210000000000001E-3</v>
+        <v>1.4606E-3</v>
       </c>
       <c r="E28">
-        <v>6.0322000000000006E-3</v>
+        <v>5.6709000000000013E-3</v>
       </c>
       <c r="F28">
-        <v>2.3288E-2</v>
+        <v>2.3449000000000001E-2</v>
       </c>
       <c r="G28">
-        <v>7.859950000000001E-3</v>
+        <v>7.7351999999999994E-3</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A29">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B29" t="s">
-        <v>70</v>
+        <v>34</v>
       </c>
       <c r="C29">
-        <v>4.2010000000000002E-4</v>
+        <v>3.7889999999999999E-4</v>
       </c>
       <c r="D29">
-        <v>1.7771E-3</v>
+        <v>1.2478999999999999E-3</v>
       </c>
       <c r="E29">
-        <v>6.0873000000000003E-3</v>
+        <v>4.7670000000000004E-3</v>
       </c>
       <c r="F29">
-        <v>2.3351299999999998E-2</v>
+        <v>1.79676E-2</v>
       </c>
       <c r="G29">
-        <v>7.9089499999999997E-3</v>
+        <v>6.0903500000000013E-3</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.3">
@@ -1292,22 +2629,22 @@
         <v>3</v>
       </c>
       <c r="B30" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="C30">
-        <v>4.0739999999999987E-4</v>
+        <v>5.1710000000000005E-4</v>
       </c>
       <c r="D30">
-        <v>1.4502E-3</v>
+        <v>1.4926E-3</v>
       </c>
       <c r="E30">
-        <v>5.7404000000000014E-3</v>
+        <v>5.3880999999999998E-3</v>
       </c>
       <c r="F30">
-        <v>2.41018E-2</v>
+        <v>2.46012E-2</v>
       </c>
       <c r="G30">
-        <v>7.92495E-3</v>
+        <v>7.9997499999999999E-3</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.3">
@@ -1315,68 +2652,68 @@
         <v>3</v>
       </c>
       <c r="B31" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C31">
-        <v>5.1710000000000005E-4</v>
+        <v>6.9979999999999999E-4</v>
       </c>
       <c r="D31">
-        <v>1.4926E-3</v>
+        <v>2.5696E-3</v>
       </c>
       <c r="E31">
-        <v>5.3880999999999998E-3</v>
+        <v>1.2660899999999999E-2</v>
       </c>
       <c r="F31">
-        <v>2.46012E-2</v>
+        <v>7.0278300000000016E-2</v>
       </c>
       <c r="G31">
-        <v>7.9997499999999999E-3</v>
+        <v>2.1552149999999999E-2</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A32">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B32" t="s">
-        <v>23</v>
+        <v>37</v>
       </c>
       <c r="C32">
-        <v>4.3120000000000002E-4</v>
+        <v>7.0349999999999992E-4</v>
       </c>
       <c r="D32">
-        <v>1.6272999999999999E-3</v>
+        <v>1.4522000000000001E-3</v>
       </c>
       <c r="E32">
-        <v>6.1433999999999994E-3</v>
+        <v>6.2464000000000009E-3</v>
       </c>
       <c r="F32">
-        <v>2.3925700000000001E-2</v>
+        <v>6.2362699999999993E-2</v>
       </c>
       <c r="G32">
-        <v>8.0318999999999998E-3</v>
+        <v>1.7691200000000001E-2</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A33">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B33" t="s">
-        <v>52</v>
+        <v>38</v>
       </c>
       <c r="C33">
-        <v>4.061E-4</v>
+        <v>6.5550000000000005E-4</v>
       </c>
       <c r="D33">
-        <v>1.5590000000000001E-3</v>
+        <v>3.3536999999999998E-3</v>
       </c>
       <c r="E33">
-        <v>5.9854000000000001E-3</v>
+        <v>2.1119700000000002E-2</v>
       </c>
       <c r="F33">
-        <v>2.4545299999999999E-2</v>
+        <v>0.15666189999999999</v>
       </c>
       <c r="G33">
-        <v>8.1239499999999996E-3</v>
+        <v>4.5447699999999987E-2</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.3">
@@ -1384,68 +2721,68 @@
         <v>3</v>
       </c>
       <c r="B34" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C34">
-        <v>4.462E-4</v>
+        <v>4.8859999999999995E-4</v>
       </c>
       <c r="D34">
-        <v>1.7449E-3</v>
+        <v>2.0677999999999998E-3</v>
       </c>
       <c r="E34">
-        <v>6.2365000000000007E-3</v>
+        <v>6.5528999999999987E-3</v>
       </c>
       <c r="F34">
-        <v>2.40708E-2</v>
+        <v>2.6191300000000001E-2</v>
       </c>
       <c r="G34">
-        <v>8.1245999999999992E-3</v>
+        <v>8.8251500000000004E-3</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A35">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B35" t="s">
-        <v>18</v>
+        <v>40</v>
       </c>
       <c r="C35">
-        <v>4.4599999999999989E-4</v>
+        <v>4.8479999999999991E-4</v>
       </c>
       <c r="D35">
-        <v>1.3523000000000001E-3</v>
+        <v>2.038799999999999E-3</v>
       </c>
       <c r="E35">
-        <v>5.3819999999999996E-3</v>
+        <v>7.4097E-3</v>
       </c>
       <c r="F35">
-        <v>2.61032E-2</v>
+        <v>2.8261399999999999E-2</v>
       </c>
       <c r="G35">
-        <v>8.3208750000000001E-3</v>
+        <v>9.5486749999999995E-3</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A36">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B36" t="s">
-        <v>25</v>
+        <v>41</v>
       </c>
       <c r="C36">
-        <v>5.5929999999999988E-4</v>
+        <v>4.462E-4</v>
       </c>
       <c r="D36">
-        <v>1.8683E-3</v>
+        <v>1.7449E-3</v>
       </c>
       <c r="E36">
-        <v>6.6320000000000007E-3</v>
+        <v>6.2365000000000007E-3</v>
       </c>
       <c r="F36">
-        <v>2.5456199999999991E-2</v>
+        <v>2.40708E-2</v>
       </c>
       <c r="G36">
-        <v>8.6289499999999998E-3</v>
+        <v>8.1245999999999992E-3</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.3">
@@ -1453,45 +2790,45 @@
         <v>3</v>
       </c>
       <c r="B37" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="C37">
-        <v>5.7519999999999989E-4</v>
+        <v>3.724E-4</v>
       </c>
       <c r="D37">
-        <v>1.8893E-3</v>
+        <v>1.4882000000000001E-3</v>
       </c>
       <c r="E37">
-        <v>6.7295999999999996E-3</v>
+        <v>5.3800000000000002E-3</v>
       </c>
       <c r="F37">
-        <v>2.54348E-2</v>
+        <v>2.1004100000000001E-2</v>
       </c>
       <c r="G37">
-        <v>8.657225000000001E-3</v>
+        <v>7.0611750000000003E-3</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A38">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B38" t="s">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="C38">
-        <v>5.109E-4</v>
+        <v>3.9449999999999999E-4</v>
       </c>
       <c r="D38">
-        <v>2.1134000000000001E-3</v>
+        <v>1.1393E-3</v>
       </c>
       <c r="E38">
-        <v>6.7102000000000012E-3</v>
+        <v>3.9068999999999996E-3</v>
       </c>
       <c r="F38">
-        <v>2.5945599999999999E-2</v>
+        <v>1.6859499999999999E-2</v>
       </c>
       <c r="G38">
-        <v>8.8200250000000004E-3</v>
+        <v>5.5750499999999998E-3</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.3">
@@ -1499,91 +2836,91 @@
         <v>3</v>
       </c>
       <c r="B39" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="C39">
-        <v>4.8859999999999995E-4</v>
+        <v>3.6699999999999998E-4</v>
       </c>
       <c r="D39">
-        <v>2.0677999999999998E-3</v>
+        <v>1.0801000000000001E-3</v>
       </c>
       <c r="E39">
-        <v>6.5528999999999987E-3</v>
+        <v>3.8421000000000002E-3</v>
       </c>
       <c r="F39">
-        <v>2.6191300000000001E-2</v>
+        <v>1.6745800000000002E-2</v>
       </c>
       <c r="G39">
-        <v>8.8251500000000004E-3</v>
+        <v>5.5087499999999998E-3</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A40">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B40" t="s">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="C40">
-        <v>4.663E-4</v>
+        <v>3.9869999999999988E-4</v>
       </c>
       <c r="D40">
-        <v>2.1857999999999999E-3</v>
+        <v>1.2049999999999999E-3</v>
       </c>
       <c r="E40">
-        <v>7.0521999999999998E-3</v>
+        <v>3.8639E-3</v>
       </c>
       <c r="F40">
-        <v>2.68942E-2</v>
+        <v>1.43263E-2</v>
       </c>
       <c r="G40">
-        <v>9.1496249999999998E-3</v>
+        <v>4.9484750000000008E-3</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A41">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B41" t="s">
-        <v>66</v>
+        <v>46</v>
       </c>
       <c r="C41">
-        <v>5.0040000000000002E-4</v>
+        <v>5.7519999999999989E-4</v>
       </c>
       <c r="D41">
-        <v>2.3032999999999999E-3</v>
+        <v>1.8893E-3</v>
       </c>
       <c r="E41">
-        <v>7.1644999999999999E-3</v>
+        <v>6.7295999999999996E-3</v>
       </c>
       <c r="F41">
-        <v>2.70443E-2</v>
+        <v>2.54348E-2</v>
       </c>
       <c r="G41">
-        <v>9.2531250000000009E-3</v>
+        <v>8.657225000000001E-3</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A42">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B42" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="C42">
-        <v>7.2070000000000001E-4</v>
+        <v>5.5540000000000006E-4</v>
       </c>
       <c r="D42">
-        <v>1.3391E-3</v>
+        <v>2.3151999999999999E-3</v>
       </c>
       <c r="E42">
-        <v>3.7751999999999998E-3</v>
+        <v>9.4991999999999993E-3</v>
       </c>
       <c r="F42">
-        <v>3.2163700000000003E-2</v>
+        <v>2.9205399999999999E-2</v>
       </c>
       <c r="G42">
-        <v>9.4996750000000008E-3</v>
+        <v>1.03938E-2</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.3">
@@ -1591,22 +2928,22 @@
         <v>3</v>
       </c>
       <c r="B43" t="s">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="C43">
-        <v>4.8479999999999991E-4</v>
+        <v>6.8390000000000009E-4</v>
       </c>
       <c r="D43">
-        <v>2.038799999999999E-3</v>
+        <v>2.2204999999999998E-3</v>
       </c>
       <c r="E43">
-        <v>7.4097E-3</v>
+        <v>8.0055000000000005E-3</v>
       </c>
       <c r="F43">
-        <v>2.8261399999999999E-2</v>
+        <v>3.2378299999999999E-2</v>
       </c>
       <c r="G43">
-        <v>9.5486749999999995E-3</v>
+        <v>1.082205E-2</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.3">
@@ -1614,45 +2951,45 @@
         <v>4</v>
       </c>
       <c r="B44" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="C44">
-        <v>5.2150000000000005E-4</v>
+        <v>4.7590000000000002E-4</v>
       </c>
       <c r="D44">
-        <v>2.1110999999999999E-3</v>
+        <v>1.1734E-3</v>
       </c>
       <c r="E44">
-        <v>7.4578999999999991E-3</v>
+        <v>3.0314999999999999E-3</v>
       </c>
       <c r="F44">
-        <v>2.8443400000000001E-2</v>
+        <v>8.4294999999999995E-3</v>
       </c>
       <c r="G44">
-        <v>9.633474999999999E-3</v>
+        <v>3.277575E-3</v>
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A45">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B45" t="s">
-        <v>64</v>
+        <v>50</v>
       </c>
       <c r="C45">
-        <v>7.7340000000000015E-4</v>
+        <v>7.6619999999999998E-4</v>
       </c>
       <c r="D45">
-        <v>1.5016000000000001E-3</v>
+        <v>2.6565E-3</v>
       </c>
       <c r="E45">
-        <v>4.0088999999999993E-3</v>
+        <v>8.7022999999999996E-3</v>
       </c>
       <c r="F45">
-        <v>3.347E-2</v>
+        <v>3.7644900000000002E-2</v>
       </c>
       <c r="G45">
-        <v>9.9384750000000004E-3</v>
+        <v>1.2442475E-2</v>
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.3">
@@ -1660,160 +2997,160 @@
         <v>4</v>
       </c>
       <c r="B46" t="s">
-        <v>63</v>
+        <v>51</v>
       </c>
       <c r="C46">
-        <v>5.8029999999999996E-4</v>
+        <v>7.2070000000000001E-4</v>
       </c>
       <c r="D46">
-        <v>2.3359000000000001E-3</v>
+        <v>1.3391E-3</v>
       </c>
       <c r="E46">
-        <v>8.7091000000000009E-3</v>
+        <v>3.7751999999999998E-3</v>
       </c>
       <c r="F46">
-        <v>2.9571699999999999E-2</v>
+        <v>3.2163700000000003E-2</v>
       </c>
       <c r="G46">
-        <v>1.0299249999999999E-2</v>
+        <v>9.4996750000000008E-3</v>
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A47">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B47" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="C47">
-        <v>5.5540000000000006E-4</v>
+        <v>4.061E-4</v>
       </c>
       <c r="D47">
-        <v>2.3151999999999999E-3</v>
+        <v>1.5590000000000001E-3</v>
       </c>
       <c r="E47">
-        <v>9.4991999999999993E-3</v>
+        <v>5.9854000000000001E-3</v>
       </c>
       <c r="F47">
-        <v>2.9205399999999999E-2</v>
+        <v>2.4545299999999999E-2</v>
       </c>
       <c r="G47">
-        <v>1.03938E-2</v>
+        <v>8.1239499999999996E-3</v>
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A48">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B48" t="s">
-        <v>27</v>
+        <v>53</v>
       </c>
       <c r="C48">
-        <v>6.5719999999999993E-4</v>
+        <v>7.5100000000000004E-4</v>
       </c>
       <c r="D48">
-        <v>2.1496000000000002E-3</v>
+        <v>1.5441999999999999E-3</v>
       </c>
       <c r="E48">
-        <v>7.9024999999999981E-3</v>
+        <v>6.4873999999999999E-3</v>
       </c>
       <c r="F48">
-        <v>3.2254400000000003E-2</v>
+        <v>6.3623899999999997E-2</v>
       </c>
       <c r="G48">
-        <v>1.0740925E-2</v>
+        <v>1.8101625E-2</v>
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A49">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B49" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="C49">
-        <v>6.8390000000000009E-4</v>
+        <v>5.109E-4</v>
       </c>
       <c r="D49">
-        <v>2.2204999999999998E-3</v>
+        <v>2.1134000000000001E-3</v>
       </c>
       <c r="E49">
-        <v>8.0055000000000005E-3</v>
+        <v>6.7102000000000012E-3</v>
       </c>
       <c r="F49">
-        <v>3.2378299999999999E-2</v>
+        <v>2.5945599999999999E-2</v>
       </c>
       <c r="G49">
-        <v>1.082205E-2</v>
+        <v>8.8200250000000004E-3</v>
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A50">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B50" t="s">
-        <v>11</v>
+        <v>55</v>
       </c>
       <c r="C50">
-        <v>6.355E-4</v>
+        <v>4.2939999999999997E-4</v>
       </c>
       <c r="D50">
-        <v>2.5883999999999998E-3</v>
+        <v>1.5827E-3</v>
       </c>
       <c r="E50">
-        <v>8.2772000000000019E-3</v>
+        <v>5.6093999999999988E-3</v>
       </c>
       <c r="F50">
-        <v>3.3306000000000002E-2</v>
+        <v>2.1062399999999998E-2</v>
       </c>
       <c r="G50">
-        <v>1.1201775000000001E-2</v>
+        <v>7.1709749999999996E-3</v>
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A51">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B51" t="s">
-        <v>26</v>
+        <v>56</v>
       </c>
       <c r="C51">
-        <v>6.6259999999999995E-4</v>
+        <v>4.663E-4</v>
       </c>
       <c r="D51">
-        <v>2.8016999999999999E-3</v>
+        <v>2.1857999999999999E-3</v>
       </c>
       <c r="E51">
-        <v>8.369699999999999E-3</v>
+        <v>7.0521999999999998E-3</v>
       </c>
       <c r="F51">
-        <v>3.3627499999999998E-2</v>
+        <v>2.68942E-2</v>
       </c>
       <c r="G51">
-        <v>1.1365375E-2</v>
+        <v>9.1496249999999998E-3</v>
       </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A52">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B52" t="s">
-        <v>31</v>
+        <v>57</v>
       </c>
       <c r="C52">
-        <v>7.118999999999999E-4</v>
+        <v>5.2150000000000005E-4</v>
       </c>
       <c r="D52">
-        <v>2.3173999999999998E-3</v>
+        <v>2.1110999999999999E-3</v>
       </c>
       <c r="E52">
-        <v>8.4971000000000005E-3</v>
+        <v>7.4578999999999991E-3</v>
       </c>
       <c r="F52">
-        <v>3.59745E-2</v>
+        <v>2.8443400000000001E-2</v>
       </c>
       <c r="G52">
-        <v>1.1875225E-2</v>
+        <v>9.633474999999999E-3</v>
       </c>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.3">
@@ -1821,45 +3158,45 @@
         <v>4</v>
       </c>
       <c r="B53" t="s">
-        <v>50</v>
+        <v>58</v>
       </c>
       <c r="C53">
-        <v>7.6619999999999998E-4</v>
+        <v>4.3950000000000011E-4</v>
       </c>
       <c r="D53">
-        <v>2.6565E-3</v>
+        <v>1.5931999999999999E-3</v>
       </c>
       <c r="E53">
-        <v>8.7022999999999996E-3</v>
+        <v>5.4063999999999996E-3</v>
       </c>
       <c r="F53">
-        <v>3.7644900000000002E-2</v>
+        <v>2.0717300000000001E-2</v>
       </c>
       <c r="G53">
-        <v>1.2442475E-2</v>
+        <v>7.0391000000000004E-3</v>
       </c>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A54">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B54" t="s">
-        <v>37</v>
+        <v>59</v>
       </c>
       <c r="C54">
-        <v>7.0349999999999992E-4</v>
+        <v>4.1320000000000001E-4</v>
       </c>
       <c r="D54">
-        <v>1.4522000000000001E-3</v>
+        <v>1.536E-3</v>
       </c>
       <c r="E54">
-        <v>6.2464000000000009E-3</v>
+        <v>5.484000000000001E-3</v>
       </c>
       <c r="F54">
-        <v>6.2362699999999993E-2</v>
+        <v>2.1014399999999999E-2</v>
       </c>
       <c r="G54">
-        <v>1.7691200000000001E-2</v>
+        <v>7.1119E-3</v>
       </c>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.3">
@@ -1867,258 +3204,259 @@
         <v>4</v>
       </c>
       <c r="B55" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="C55">
-        <v>7.5100000000000004E-4</v>
+        <v>4.0170000000000001E-4</v>
       </c>
       <c r="D55">
-        <v>1.5441999999999999E-3</v>
+        <v>1.1467999999999999E-3</v>
       </c>
       <c r="E55">
-        <v>6.4873999999999999E-3</v>
+        <v>3.9153000000000009E-3</v>
       </c>
       <c r="F55">
-        <v>6.3623899999999997E-2</v>
+        <v>1.6862800000000001E-2</v>
       </c>
       <c r="G55">
-        <v>1.8101625E-2</v>
+        <v>5.5816499999999996E-3</v>
       </c>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A56">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B56" t="s">
-        <v>20</v>
+        <v>61</v>
       </c>
       <c r="C56">
-        <v>6.5799999999999995E-4</v>
+        <v>4.2910000000000008E-4</v>
       </c>
       <c r="D56">
-        <v>2.4927E-3</v>
+        <v>1.2449E-3</v>
       </c>
       <c r="E56">
-        <v>1.2087199999999999E-2</v>
+        <v>3.9409999999999992E-3</v>
       </c>
       <c r="F56">
-        <v>6.86977E-2</v>
+        <v>1.46222E-2</v>
       </c>
       <c r="G56">
-        <v>2.09839E-2</v>
+        <v>5.0592999999999992E-3</v>
       </c>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A57">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B57" t="s">
-        <v>36</v>
+        <v>62</v>
       </c>
       <c r="C57">
-        <v>6.9979999999999999E-4</v>
+        <v>4.104E-4</v>
       </c>
       <c r="D57">
-        <v>2.5696E-3</v>
+        <v>1.235E-3</v>
       </c>
       <c r="E57">
-        <v>1.2660899999999999E-2</v>
+        <v>3.8451000000000002E-3</v>
       </c>
       <c r="F57">
-        <v>7.0278300000000016E-2</v>
+        <v>1.44146E-2</v>
       </c>
       <c r="G57">
-        <v>2.1552149999999999E-2</v>
+        <v>4.9762749999999996E-3</v>
       </c>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A58">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B58" t="s">
-        <v>22</v>
+        <v>63</v>
       </c>
       <c r="C58">
-        <v>5.888E-4</v>
+        <v>5.8029999999999996E-4</v>
       </c>
       <c r="D58">
-        <v>3.2255999999999999E-3</v>
+        <v>2.3359000000000001E-3</v>
       </c>
       <c r="E58">
-        <v>2.2238000000000001E-2</v>
+        <v>8.7091000000000009E-3</v>
       </c>
       <c r="F58">
-        <v>0.154914</v>
+        <v>2.9571699999999999E-2</v>
       </c>
       <c r="G58">
-        <v>4.5241600000000007E-2</v>
+        <v>1.0299249999999999E-2</v>
       </c>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A59">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B59" t="s">
-        <v>38</v>
+        <v>64</v>
       </c>
       <c r="C59">
-        <v>6.5550000000000005E-4</v>
+        <v>7.7340000000000015E-4</v>
       </c>
       <c r="D59">
-        <v>3.3536999999999998E-3</v>
+        <v>1.5016000000000001E-3</v>
       </c>
       <c r="E59">
-        <v>2.1119700000000002E-2</v>
+        <v>4.0088999999999993E-3</v>
       </c>
       <c r="F59">
-        <v>0.15666189999999999</v>
+        <v>3.347E-2</v>
       </c>
       <c r="G59">
-        <v>4.5447699999999987E-2</v>
+        <v>9.9384750000000004E-3</v>
       </c>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A60">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B60" t="s">
-        <v>21</v>
+        <v>65</v>
       </c>
       <c r="C60">
-        <v>6.6390000000000004E-4</v>
+        <v>4.9719999999999994E-4</v>
       </c>
       <c r="D60">
-        <v>3.7580000000000001E-3</v>
+        <v>1.6561E-3</v>
       </c>
       <c r="E60">
-        <v>2.53799E-2</v>
+        <v>5.6768000000000001E-3</v>
       </c>
       <c r="F60">
-        <v>0.1650634</v>
+        <v>2.1208299999999999E-2</v>
       </c>
       <c r="G60">
-        <v>4.8716299999999997E-2</v>
+        <v>7.2595999999999997E-3</v>
       </c>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A61">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B61" t="s">
-        <v>10</v>
+        <v>66</v>
       </c>
       <c r="C61">
-        <v>6.2369999999999993E-4</v>
+        <v>5.0040000000000002E-4</v>
       </c>
       <c r="D61">
-        <v>3.6500999999999999E-3</v>
+        <v>2.3032999999999999E-3</v>
       </c>
       <c r="E61">
-        <v>2.4654599999999999E-2</v>
+        <v>7.1644999999999999E-3</v>
       </c>
       <c r="F61">
-        <v>0.16601550000000001</v>
+        <v>2.70443E-2</v>
       </c>
       <c r="G61">
-        <v>4.8735975000000001E-2</v>
+        <v>9.2531250000000009E-3</v>
       </c>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A62">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="B62" t="s">
-        <v>7</v>
+        <v>67</v>
       </c>
       <c r="C62">
-        <v>8.2129999999999996E-4</v>
+        <v>3.9859999999999999E-4</v>
       </c>
       <c r="D62">
-        <v>5.8412000000000004E-3</v>
+        <v>1.7210000000000001E-3</v>
       </c>
       <c r="E62">
-        <v>5.0274399999999997E-2</v>
+        <v>6.0322000000000006E-3</v>
       </c>
       <c r="F62">
-        <v>0.3459566</v>
+        <v>2.3288E-2</v>
       </c>
       <c r="G62">
-        <v>0.100723375</v>
+        <v>7.859950000000001E-3</v>
       </c>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A63">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B63" t="s">
-        <v>12</v>
+        <v>68</v>
       </c>
       <c r="C63">
-        <v>8.5330000000000009E-4</v>
+        <v>4.7090000000000012E-4</v>
       </c>
       <c r="D63">
-        <v>6.0492999999999996E-3</v>
+        <v>1.6927000000000001E-3</v>
       </c>
       <c r="E63">
-        <v>5.0293900000000002E-2</v>
+        <v>5.5465999999999996E-3</v>
       </c>
       <c r="F63">
-        <v>0.34812510000000002</v>
+        <v>2.1121600000000001E-2</v>
       </c>
       <c r="G63">
-        <v>0.1013304</v>
+        <v>7.2079499999999994E-3</v>
       </c>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A64">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B64" t="s">
-        <v>13</v>
+        <v>69</v>
       </c>
       <c r="C64">
-        <v>1.0300999999999999E-3</v>
+        <v>4.4539999999999998E-4</v>
       </c>
       <c r="D64">
-        <v>6.9851999999999996E-3</v>
+        <v>1.24E-3</v>
       </c>
       <c r="E64">
-        <v>5.16058E-2</v>
+        <v>3.9023E-3</v>
       </c>
       <c r="F64">
-        <v>0.35120089999999998</v>
+        <v>1.44753E-2</v>
       </c>
       <c r="G64">
-        <v>0.10270550000000001</v>
+        <v>5.0157500000000002E-3</v>
       </c>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A65">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B65" t="s">
-        <v>28</v>
+        <v>70</v>
       </c>
       <c r="C65">
-        <v>1.0554E-3</v>
+        <v>4.2010000000000002E-4</v>
       </c>
       <c r="D65">
-        <v>7.1461000000000007E-3</v>
+        <v>1.7771E-3</v>
       </c>
       <c r="E65">
-        <v>5.2188900000000003E-2</v>
+        <v>6.0873000000000003E-3</v>
       </c>
       <c r="F65">
-        <v>0.3518</v>
+        <v>2.3351299999999998E-2</v>
       </c>
       <c r="G65">
-        <v>0.1030476</v>
+        <v>7.9089499999999997E-3</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:G65" xr:uid="{00000000-0001-0000-0000-000000000000}">
     <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G65">
-      <sortCondition ref="G1:G65"/>
+      <sortCondition ref="A2:A65"/>
+      <sortCondition ref="B2:B65"/>
     </sortState>
   </autoFilter>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -8199,7 +9537,7 @@
   <dimension ref="A1:G65"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E10" sqref="A1:G65"/>
+      <selection activeCell="Q4" sqref="Q4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -8232,33 +9570,33 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2">
+        <v>5</v>
+      </c>
+      <c r="D2">
         <v>12</v>
       </c>
-      <c r="C2">
-        <v>2</v>
-      </c>
-      <c r="D2">
-        <v>2</v>
-      </c>
       <c r="E2">
-        <v>2</v>
+        <v>24</v>
       </c>
       <c r="F2">
-        <v>2</v>
+        <v>42</v>
       </c>
       <c r="G2">
-        <v>2</v>
+        <v>20.75</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C3">
         <v>2</v>
@@ -8278,125 +9616,125 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B4" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="C4">
         <v>2</v>
       </c>
       <c r="D4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G4">
-        <v>2</v>
+        <v>2.75</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B5" t="s">
-        <v>26</v>
+        <v>10</v>
       </c>
       <c r="C5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D5">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E5">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="F5">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G5">
-        <v>2</v>
+        <v>4.25</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B6" t="s">
-        <v>28</v>
+        <v>8</v>
       </c>
       <c r="C6">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D6">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E6">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="F6">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G6">
-        <v>2</v>
+        <v>4.75</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B7" t="s">
-        <v>34</v>
+        <v>13</v>
       </c>
       <c r="C7">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D7">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="E7">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="F7">
-        <v>2</v>
+        <v>22</v>
       </c>
       <c r="G7">
-        <v>2</v>
+        <v>12</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B8" t="s">
-        <v>38</v>
+        <v>9</v>
       </c>
       <c r="C8">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="D8">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="E8">
-        <v>2</v>
+        <v>17</v>
       </c>
       <c r="F8">
-        <v>2</v>
+        <v>23</v>
       </c>
       <c r="G8">
-        <v>2</v>
+        <v>14.25</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B9" t="s">
-        <v>41</v>
+        <v>16</v>
       </c>
       <c r="C9">
         <v>2</v>
@@ -8416,10 +9754,10 @@
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B10" t="s">
-        <v>46</v>
+        <v>21</v>
       </c>
       <c r="C10">
         <v>2</v>
@@ -8439,10 +9777,10 @@
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B11" t="s">
-        <v>48</v>
+        <v>26</v>
       </c>
       <c r="C11">
         <v>2</v>
@@ -8462,13 +9800,13 @@
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B12" t="s">
-        <v>65</v>
+        <v>28</v>
       </c>
       <c r="C12">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D12">
         <v>2</v>
@@ -8480,38 +9818,38 @@
         <v>2</v>
       </c>
       <c r="G12">
-        <v>2.5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B13" t="s">
-        <v>68</v>
+        <v>25</v>
       </c>
       <c r="C13">
         <v>2</v>
       </c>
       <c r="D13">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E13">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F13">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G13">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B14" t="s">
-        <v>11</v>
+        <v>27</v>
       </c>
       <c r="C14">
         <v>2</v>
@@ -8534,22 +9872,22 @@
         <v>2</v>
       </c>
       <c r="B15" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C15">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D15">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E15">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F15">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G15">
-        <v>2.75</v>
+        <v>3.75</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.3">
@@ -8557,68 +9895,68 @@
         <v>2</v>
       </c>
       <c r="B16" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="C16">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D16">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E16">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F16">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G16">
-        <v>2.75</v>
+        <v>4</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B17" t="s">
-        <v>59</v>
+        <v>22</v>
       </c>
       <c r="C17">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D17">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E17">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="F17">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G17">
-        <v>2.75</v>
+        <v>4.25</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B18" t="s">
-        <v>63</v>
+        <v>17</v>
       </c>
       <c r="C18">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D18">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E18">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="F18">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G18">
-        <v>3.25</v>
+        <v>5.5</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.3">
@@ -8626,22 +9964,22 @@
         <v>2</v>
       </c>
       <c r="B19" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C19">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D19">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="E19">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="F19">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G19">
-        <v>3.75</v>
+        <v>6.75</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.3">
@@ -8649,137 +9987,137 @@
         <v>2</v>
       </c>
       <c r="B20" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="C20">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D20">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="E20">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="F20">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="G20">
-        <v>4</v>
+        <v>8.5</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A21">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B21" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="C21">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="D21">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="E21">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="F21">
-        <v>4</v>
+        <v>17</v>
       </c>
       <c r="G21">
-        <v>4</v>
+        <v>10</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A22">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B22" t="s">
-        <v>35</v>
+        <v>15</v>
       </c>
       <c r="C22">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="D22">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="E22">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="F22">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="G22">
-        <v>4</v>
+        <v>11.5</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A23">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B23" t="s">
-        <v>49</v>
+        <v>20</v>
       </c>
       <c r="C23">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="D23">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="E23">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="F23">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="G23">
-        <v>4</v>
+        <v>12.75</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B24" t="s">
-        <v>10</v>
+        <v>34</v>
       </c>
       <c r="C24">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D24">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E24">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="F24">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G24">
-        <v>4.25</v>
+        <v>2</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A25">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B25" t="s">
-        <v>22</v>
+        <v>38</v>
       </c>
       <c r="C25">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D25">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E25">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="F25">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G25">
-        <v>4.25</v>
+        <v>2</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.3">
@@ -8787,68 +10125,68 @@
         <v>3</v>
       </c>
       <c r="B26" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C26">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D26">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E26">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F26">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G26">
-        <v>4.25</v>
+        <v>2</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A27">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B27" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="C27">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D27">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E27">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F27">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G27">
-        <v>4.25</v>
+        <v>2</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A28">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B28" t="s">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="C28">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D28">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="E28">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F28">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G28">
-        <v>4.25</v>
+        <v>2</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.3">
@@ -8856,33 +10194,33 @@
         <v>3</v>
       </c>
       <c r="B29" t="s">
-        <v>47</v>
+        <v>29</v>
       </c>
       <c r="C29">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D29">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E29">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F29">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="G29">
-        <v>4.5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A30">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B30" t="s">
-        <v>55</v>
+        <v>35</v>
       </c>
       <c r="C30">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D30">
         <v>4</v>
@@ -8894,15 +10232,15 @@
         <v>4</v>
       </c>
       <c r="G30">
-        <v>4.5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A31">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B31" t="s">
-        <v>8</v>
+        <v>42</v>
       </c>
       <c r="C31">
         <v>5</v>
@@ -8911,13 +10249,13 @@
         <v>4</v>
       </c>
       <c r="E31">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F31">
         <v>4</v>
       </c>
       <c r="G31">
-        <v>4.75</v>
+        <v>4.25</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.3">
@@ -8925,39 +10263,39 @@
         <v>3</v>
       </c>
       <c r="B32" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="C32">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D32">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E32">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F32">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="G32">
-        <v>4.75</v>
+        <v>4.5</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A33">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B33" t="s">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="C33">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D33">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E33">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F33">
         <v>5</v>
@@ -8968,16 +10306,16 @@
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A34">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B34" t="s">
-        <v>57</v>
+        <v>32</v>
       </c>
       <c r="C34">
         <v>5</v>
       </c>
       <c r="D34">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E34">
         <v>5</v>
@@ -8986,18 +10324,18 @@
         <v>5</v>
       </c>
       <c r="G34">
-        <v>4.75</v>
+        <v>5</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A35">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B35" t="s">
-        <v>60</v>
+        <v>36</v>
       </c>
       <c r="C35">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D35">
         <v>5</v>
@@ -9009,99 +10347,99 @@
         <v>5</v>
       </c>
       <c r="G35">
-        <v>4.75</v>
+        <v>5.25</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A36">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B36" t="s">
-        <v>61</v>
+        <v>39</v>
       </c>
       <c r="C36">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="D36">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E36">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F36">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G36">
-        <v>4.75</v>
+        <v>6.5</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A37">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B37" t="s">
-        <v>64</v>
+        <v>44</v>
       </c>
       <c r="C37">
         <v>6</v>
       </c>
       <c r="D37">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="E37">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="F37">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="G37">
-        <v>4.75</v>
+        <v>6.75</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A38">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B38" t="s">
-        <v>66</v>
+        <v>45</v>
       </c>
       <c r="C38">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D38">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="E38">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="F38">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="G38">
-        <v>4.75</v>
+        <v>6.75</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A39">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B39" t="s">
-        <v>69</v>
+        <v>40</v>
       </c>
       <c r="C39">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="D39">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E39">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="F39">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="G39">
-        <v>4.75</v>
+        <v>7.5</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.3">
@@ -9109,45 +10447,45 @@
         <v>3</v>
       </c>
       <c r="B40" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C40">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D40">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="E40">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="F40">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="G40">
-        <v>5</v>
+        <v>8.5</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A41">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B41" t="s">
-        <v>52</v>
+        <v>37</v>
       </c>
       <c r="C41">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="D41">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="E41">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="F41">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="G41">
-        <v>5</v>
+        <v>10.75</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.3">
@@ -9155,183 +10493,183 @@
         <v>3</v>
       </c>
       <c r="B42" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="C42">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="D42">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="E42">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="F42">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="G42">
-        <v>5.25</v>
+        <v>11.5</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A43">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B43" t="s">
-        <v>50</v>
+        <v>31</v>
       </c>
       <c r="C43">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="D43">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="E43">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="F43">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="G43">
-        <v>5.25</v>
+        <v>12</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A44">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B44" t="s">
-        <v>17</v>
+        <v>59</v>
       </c>
       <c r="C44">
         <v>5</v>
       </c>
       <c r="D44">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E44">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="F44">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="G44">
-        <v>5.5</v>
+        <v>2.75</v>
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A45">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B45" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="C45">
+        <v>2</v>
+      </c>
+      <c r="D45">
+        <v>2</v>
+      </c>
+      <c r="E45">
+        <v>4</v>
+      </c>
+      <c r="F45">
         <v>5</v>
       </c>
-      <c r="D45">
-        <v>4</v>
-      </c>
-      <c r="E45">
-        <v>8</v>
-      </c>
-      <c r="F45">
-        <v>8</v>
-      </c>
       <c r="G45">
-        <v>6.25</v>
+        <v>3.25</v>
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A46">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B46" t="s">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="C46">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="D46">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E46">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F46">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="G46">
-        <v>6.5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A47">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B47" t="s">
-        <v>24</v>
+        <v>54</v>
       </c>
       <c r="C47">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D47">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="E47">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="F47">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="G47">
-        <v>6.75</v>
+        <v>4.25</v>
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A48">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B48" t="s">
-        <v>44</v>
+        <v>58</v>
       </c>
       <c r="C48">
+        <v>3</v>
+      </c>
+      <c r="D48">
         <v>6</v>
       </c>
-      <c r="D48">
-        <v>7</v>
-      </c>
       <c r="E48">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="F48">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="G48">
-        <v>6.75</v>
+        <v>4.25</v>
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A49">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B49" t="s">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="C49">
         <v>6</v>
       </c>
       <c r="D49">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="E49">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="F49">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="G49">
-        <v>6.75</v>
+        <v>4.5</v>
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.3">
@@ -9339,45 +10677,45 @@
         <v>4</v>
       </c>
       <c r="B50" t="s">
-        <v>62</v>
+        <v>53</v>
       </c>
       <c r="C50">
         <v>6</v>
       </c>
       <c r="D50">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="E50">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="F50">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="G50">
-        <v>6.75</v>
+        <v>4.75</v>
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A51">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B51" t="s">
-        <v>40</v>
+        <v>57</v>
       </c>
       <c r="C51">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="D51">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E51">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="F51">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="G51">
-        <v>7.5</v>
+        <v>4.75</v>
       </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.3">
@@ -9385,91 +10723,91 @@
         <v>4</v>
       </c>
       <c r="B52" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="C52">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="D52">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E52">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="F52">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="G52">
-        <v>7.5</v>
+        <v>4.75</v>
       </c>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A53">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B53" t="s">
-        <v>14</v>
+        <v>61</v>
       </c>
       <c r="C53">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D53">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E53">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="F53">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="G53">
-        <v>8.5</v>
+        <v>4.75</v>
       </c>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A54">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B54" t="s">
-        <v>30</v>
+        <v>52</v>
       </c>
       <c r="C54">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D54">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="E54">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="F54">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="G54">
-        <v>8.5</v>
+        <v>5</v>
       </c>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A55">
+        <v>4</v>
+      </c>
+      <c r="B55" t="s">
+        <v>50</v>
+      </c>
+      <c r="C55">
+        <v>6</v>
+      </c>
+      <c r="D55">
         <v>5</v>
       </c>
-      <c r="B55" t="s">
-        <v>67</v>
-      </c>
-      <c r="C55">
-        <v>8</v>
-      </c>
-      <c r="D55">
-        <v>6</v>
-      </c>
       <c r="E55">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="F55">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="G55">
-        <v>8.5</v>
+        <v>5.25</v>
       </c>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.3">
@@ -9477,237 +10815,238 @@
         <v>4</v>
       </c>
       <c r="B56" t="s">
-        <v>51</v>
+        <v>62</v>
       </c>
       <c r="C56">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="D56">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E56">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="F56">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="G56">
-        <v>9.75</v>
+        <v>6.75</v>
       </c>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A57">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B57" t="s">
-        <v>19</v>
+        <v>56</v>
       </c>
       <c r="C57">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D57">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E57">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F57">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="G57">
-        <v>10</v>
+        <v>7.5</v>
       </c>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A58">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B58" t="s">
-        <v>37</v>
+        <v>51</v>
       </c>
       <c r="C58">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D58">
+        <v>6</v>
+      </c>
+      <c r="E58">
         <v>10</v>
       </c>
-      <c r="E58">
-        <v>14</v>
-      </c>
       <c r="F58">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G58">
-        <v>10.75</v>
+        <v>9.75</v>
       </c>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A59">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B59" t="s">
-        <v>15</v>
+        <v>65</v>
       </c>
       <c r="C59">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="D59">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="E59">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="F59">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="G59">
-        <v>11.5</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A60">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B60" t="s">
-        <v>33</v>
+        <v>68</v>
       </c>
       <c r="C60">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="D60">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="E60">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="F60">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="G60">
-        <v>11.5</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A61">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B61" t="s">
-        <v>13</v>
+        <v>64</v>
       </c>
       <c r="C61">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D61">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="E61">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="F61">
-        <v>22</v>
+        <v>5</v>
       </c>
       <c r="G61">
-        <v>12</v>
+        <v>4.75</v>
       </c>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A62">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B62" t="s">
-        <v>31</v>
+        <v>66</v>
       </c>
       <c r="C62">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="D62">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="E62">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="F62">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="G62">
-        <v>12</v>
+        <v>4.75</v>
       </c>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A63">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B63" t="s">
-        <v>20</v>
+        <v>69</v>
       </c>
       <c r="C63">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="D63">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="E63">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="F63">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="G63">
-        <v>12.75</v>
+        <v>4.75</v>
       </c>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A64">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B64" t="s">
-        <v>9</v>
+        <v>67</v>
       </c>
       <c r="C64">
         <v>8</v>
       </c>
       <c r="D64">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="E64">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="F64">
-        <v>23</v>
+        <v>10</v>
       </c>
       <c r="G64">
-        <v>14.25</v>
+        <v>8.5</v>
       </c>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A65">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="B65" t="s">
-        <v>7</v>
+        <v>70</v>
       </c>
       <c r="C65">
         <v>5</v>
       </c>
       <c r="D65">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="E65">
-        <v>24</v>
+        <v>8</v>
       </c>
       <c r="F65">
-        <v>42</v>
+        <v>8</v>
       </c>
       <c r="G65">
-        <v>20.75</v>
+        <v>6.25</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:G65" xr:uid="{00000000-0001-0000-0500-000000000000}">
     <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G65">
-      <sortCondition ref="G1:G65"/>
+      <sortCondition ref="A1:A65"/>
     </sortState>
   </autoFilter>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/Excel/Hasil_Pengujian_Map_4_128_avg_length.xlsx
+++ b/Excel/Hasil_Pengujian_Map_4_128_avg_length.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SEMHAS\TA_Python_Server\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3DE25E45-9DD6-40D5-BC60-89E91D718E4B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{056B10FB-9084-470E-AE13-A9DF46EC0FF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Waktu Pencarian" sheetId="1" r:id="rId1"/>
@@ -383,7 +383,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>A*</c:v>
+                  <c:v>PPO</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -425,16 +425,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>5</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>12</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>24</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>42</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -454,7 +454,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>PPO</c:v>
+                  <c:v>BDS-PPO</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -525,7 +525,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>JPS</c:v>
+                  <c:v>GL-PPO</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -570,13 +570,13 @@
                   <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -596,7 +596,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>GL</c:v>
+                  <c:v>JPS-PPO</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -638,16 +638,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>3</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>6</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -667,7 +667,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>BDS</c:v>
+                  <c:v>TPF-PPO</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -709,16 +709,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>5</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>6</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -738,7 +738,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>TPF</c:v>
+                  <c:v>BDS-TPF-PPO</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -780,16 +780,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>4</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>8</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>14</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>22</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -809,7 +809,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>BRC</c:v>
+                  <c:v>GL-TPF-PPO</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -853,16 +853,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>8</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>9</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>17</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>23</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1947,8 +1947,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G65"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I18" sqref="I18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M9" sqref="M9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1982,278 +1982,278 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B2" t="s">
-        <v>7</v>
+        <v>30</v>
       </c>
       <c r="C2">
-        <v>8.2129999999999996E-4</v>
+        <v>4.3779999999999991E-4</v>
       </c>
       <c r="D2">
-        <v>5.8412000000000004E-3</v>
+        <v>1.0556000000000001E-3</v>
       </c>
       <c r="E2">
-        <v>5.0274399999999997E-2</v>
+        <v>2.7057000000000001E-3</v>
       </c>
       <c r="F2">
-        <v>0.3459566</v>
+        <v>7.5819999999999976E-3</v>
       </c>
       <c r="G2">
-        <v>0.100723375</v>
+        <v>2.9452749999999998E-3</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="C3">
-        <v>2.6420000000000003E-4</v>
+        <v>4.1730000000000001E-4</v>
       </c>
       <c r="D3">
-        <v>9.794999999999999E-4</v>
+        <v>1.0215999999999999E-3</v>
       </c>
       <c r="E3">
-        <v>4.0574999999999986E-3</v>
+        <v>2.6044000000000002E-3</v>
       </c>
       <c r="F3">
-        <v>1.6627300000000001E-2</v>
+        <v>7.7813999999999991E-3</v>
       </c>
       <c r="G3">
-        <v>5.482125E-3</v>
+        <v>2.9561750000000001E-3</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>9</v>
+        <v>49</v>
       </c>
       <c r="C4">
-        <v>3.994E-4</v>
+        <v>4.7590000000000002E-4</v>
       </c>
       <c r="D4">
-        <v>1.2551999999999999E-3</v>
+        <v>1.1734E-3</v>
       </c>
       <c r="E4">
-        <v>4.9544999999999997E-3</v>
+        <v>3.0314999999999999E-3</v>
       </c>
       <c r="F4">
-        <v>2.4652299999999999E-2</v>
+        <v>8.4294999999999995E-3</v>
       </c>
       <c r="G4">
-        <v>7.8153500000000004E-3</v>
+        <v>3.277575E-3</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>10</v>
+        <v>29</v>
       </c>
       <c r="C5">
-        <v>6.2369999999999993E-4</v>
+        <v>4.5090000000000001E-4</v>
       </c>
       <c r="D5">
-        <v>3.6500999999999999E-3</v>
+        <v>1.1095E-3</v>
       </c>
       <c r="E5">
-        <v>2.4654599999999999E-2</v>
+        <v>2.9009999999999999E-3</v>
       </c>
       <c r="F5">
-        <v>0.16601550000000001</v>
+        <v>1.0358900000000001E-2</v>
       </c>
       <c r="G5">
-        <v>4.8735975000000001E-2</v>
+        <v>3.7050749999999999E-3</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B6" t="s">
-        <v>11</v>
+        <v>45</v>
       </c>
       <c r="C6">
-        <v>6.355E-4</v>
+        <v>3.9869999999999988E-4</v>
       </c>
       <c r="D6">
-        <v>2.5883999999999998E-3</v>
+        <v>1.2049999999999999E-3</v>
       </c>
       <c r="E6">
-        <v>8.2772000000000019E-3</v>
+        <v>3.8639E-3</v>
       </c>
       <c r="F6">
-        <v>3.3306000000000002E-2</v>
+        <v>1.43263E-2</v>
       </c>
       <c r="G6">
-        <v>1.1201775000000001E-2</v>
+        <v>4.9484750000000008E-3</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B7" t="s">
-        <v>12</v>
+        <v>62</v>
       </c>
       <c r="C7">
-        <v>8.5330000000000009E-4</v>
+        <v>4.104E-4</v>
       </c>
       <c r="D7">
-        <v>6.0492999999999996E-3</v>
+        <v>1.235E-3</v>
       </c>
       <c r="E7">
-        <v>5.0293900000000002E-2</v>
+        <v>3.8451000000000002E-3</v>
       </c>
       <c r="F7">
-        <v>0.34812510000000002</v>
+        <v>1.44146E-2</v>
       </c>
       <c r="G7">
-        <v>0.1013304</v>
+        <v>4.9762749999999996E-3</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B8" t="s">
-        <v>13</v>
+        <v>69</v>
       </c>
       <c r="C8">
-        <v>1.0300999999999999E-3</v>
+        <v>4.4539999999999998E-4</v>
       </c>
       <c r="D8">
-        <v>6.9851999999999996E-3</v>
+        <v>1.24E-3</v>
       </c>
       <c r="E8">
-        <v>5.16058E-2</v>
+        <v>3.9023E-3</v>
       </c>
       <c r="F8">
-        <v>0.35120089999999998</v>
+        <v>1.44753E-2</v>
       </c>
       <c r="G8">
-        <v>0.10270550000000001</v>
+        <v>5.0157500000000002E-3</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B9" t="s">
-        <v>14</v>
+        <v>61</v>
       </c>
       <c r="C9">
-        <v>4.1730000000000001E-4</v>
+        <v>4.2910000000000008E-4</v>
       </c>
       <c r="D9">
-        <v>1.0215999999999999E-3</v>
+        <v>1.2449E-3</v>
       </c>
       <c r="E9">
-        <v>2.6044000000000002E-3</v>
+        <v>3.9409999999999992E-3</v>
       </c>
       <c r="F9">
-        <v>7.7813999999999991E-3</v>
+        <v>1.46222E-2</v>
       </c>
       <c r="G9">
-        <v>2.9561750000000001E-3</v>
+        <v>5.0592999999999992E-3</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B10" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="C10">
-        <v>3.5300000000000002E-4</v>
+        <v>2.6420000000000003E-4</v>
       </c>
       <c r="D10">
-        <v>1.3351999999999999E-3</v>
+        <v>9.794999999999999E-4</v>
       </c>
       <c r="E10">
-        <v>5.4406999999999997E-3</v>
+        <v>4.0574999999999986E-3</v>
       </c>
       <c r="F10">
-        <v>2.29409E-2</v>
+        <v>1.6627300000000001E-2</v>
       </c>
       <c r="G10">
-        <v>7.5174500000000002E-3</v>
+        <v>5.482125E-3</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B11" t="s">
-        <v>16</v>
+        <v>44</v>
       </c>
       <c r="C11">
-        <v>3.1990000000000002E-4</v>
+        <v>3.6699999999999998E-4</v>
       </c>
       <c r="D11">
-        <v>1.1119000000000001E-3</v>
+        <v>1.0801000000000001E-3</v>
       </c>
       <c r="E11">
-        <v>4.2827000000000004E-3</v>
+        <v>3.8421000000000002E-3</v>
       </c>
       <c r="F11">
-        <v>1.77498E-2</v>
+        <v>1.6745800000000002E-2</v>
       </c>
       <c r="G11">
-        <v>5.866075000000001E-3</v>
+        <v>5.5087499999999998E-3</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B12" t="s">
-        <v>17</v>
+        <v>43</v>
       </c>
       <c r="C12">
-        <v>3.4870000000000002E-4</v>
+        <v>3.9449999999999999E-4</v>
       </c>
       <c r="D12">
-        <v>1.1394E-3</v>
+        <v>1.1393E-3</v>
       </c>
       <c r="E12">
-        <v>4.4199E-3</v>
+        <v>3.9068999999999996E-3</v>
       </c>
       <c r="F12">
-        <v>1.7041000000000001E-2</v>
+        <v>1.6859499999999999E-2</v>
       </c>
       <c r="G12">
-        <v>5.7372499999999993E-3</v>
+        <v>5.5750499999999998E-3</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B13" t="s">
-        <v>18</v>
+        <v>60</v>
       </c>
       <c r="C13">
-        <v>4.4599999999999989E-4</v>
+        <v>4.0170000000000001E-4</v>
       </c>
       <c r="D13">
-        <v>1.3523000000000001E-3</v>
+        <v>1.1467999999999999E-3</v>
       </c>
       <c r="E13">
-        <v>5.3819999999999996E-3</v>
+        <v>3.9153000000000009E-3</v>
       </c>
       <c r="F13">
-        <v>2.61032E-2</v>
+        <v>1.6862800000000001E-2</v>
       </c>
       <c r="G13">
-        <v>8.3208750000000001E-3</v>
+        <v>5.5816499999999996E-3</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.3">
@@ -2261,22 +2261,22 @@
         <v>2</v>
       </c>
       <c r="B14" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C14">
-        <v>4.771E-4</v>
+        <v>3.4870000000000002E-4</v>
       </c>
       <c r="D14">
-        <v>1.3458999999999999E-3</v>
+        <v>1.1394E-3</v>
       </c>
       <c r="E14">
-        <v>4.9420999999999996E-3</v>
+        <v>4.4199E-3</v>
       </c>
       <c r="F14">
-        <v>2.3280599999999999E-2</v>
+        <v>1.7041000000000001E-2</v>
       </c>
       <c r="G14">
-        <v>7.5114250000000004E-3</v>
+        <v>5.7372499999999993E-3</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.3">
@@ -2284,22 +2284,22 @@
         <v>2</v>
       </c>
       <c r="B15" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C15">
-        <v>6.5799999999999995E-4</v>
+        <v>3.1990000000000002E-4</v>
       </c>
       <c r="D15">
-        <v>2.4927E-3</v>
+        <v>1.1119000000000001E-3</v>
       </c>
       <c r="E15">
-        <v>1.2087199999999999E-2</v>
+        <v>4.2827000000000004E-3</v>
       </c>
       <c r="F15">
-        <v>6.86977E-2</v>
+        <v>1.77498E-2</v>
       </c>
       <c r="G15">
-        <v>2.09839E-2</v>
+        <v>5.866075000000001E-3</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.3">
@@ -2307,229 +2307,229 @@
         <v>2</v>
       </c>
       <c r="B16" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="C16">
-        <v>6.6390000000000004E-4</v>
+        <v>4.2450000000000013E-4</v>
       </c>
       <c r="D16">
-        <v>3.7580000000000001E-3</v>
+        <v>1.0746E-3</v>
       </c>
       <c r="E16">
-        <v>2.53799E-2</v>
+        <v>3.8156000000000002E-3</v>
       </c>
       <c r="F16">
-        <v>0.1650634</v>
+        <v>1.84881E-2</v>
       </c>
       <c r="G16">
-        <v>4.8716299999999997E-2</v>
+        <v>5.9506999999999997E-3</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B17" t="s">
-        <v>22</v>
+        <v>34</v>
       </c>
       <c r="C17">
-        <v>5.888E-4</v>
+        <v>3.7889999999999999E-4</v>
       </c>
       <c r="D17">
-        <v>3.2255999999999999E-3</v>
+        <v>1.2478999999999999E-3</v>
       </c>
       <c r="E17">
-        <v>2.2238000000000001E-2</v>
+        <v>4.7670000000000004E-3</v>
       </c>
       <c r="F17">
-        <v>0.154914</v>
+        <v>1.79676E-2</v>
       </c>
       <c r="G17">
-        <v>4.5241600000000007E-2</v>
+        <v>6.0903500000000013E-3</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B18" t="s">
-        <v>23</v>
+        <v>58</v>
       </c>
       <c r="C18">
-        <v>4.3120000000000002E-4</v>
+        <v>4.3950000000000011E-4</v>
       </c>
       <c r="D18">
-        <v>1.6272999999999999E-3</v>
+        <v>1.5931999999999999E-3</v>
       </c>
       <c r="E18">
-        <v>6.1433999999999994E-3</v>
+        <v>5.4063999999999996E-3</v>
       </c>
       <c r="F18">
-        <v>2.3925700000000001E-2</v>
+        <v>2.0717300000000001E-2</v>
       </c>
       <c r="G18">
-        <v>8.0318999999999998E-3</v>
+        <v>7.0391000000000004E-3</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B19" t="s">
-        <v>24</v>
+        <v>42</v>
       </c>
       <c r="C19">
-        <v>4.2450000000000013E-4</v>
+        <v>3.724E-4</v>
       </c>
       <c r="D19">
-        <v>1.0746E-3</v>
+        <v>1.4882000000000001E-3</v>
       </c>
       <c r="E19">
-        <v>3.8156000000000002E-3</v>
+        <v>5.3800000000000002E-3</v>
       </c>
       <c r="F19">
-        <v>1.84881E-2</v>
+        <v>2.1004100000000001E-2</v>
       </c>
       <c r="G19">
-        <v>5.9506999999999997E-3</v>
+        <v>7.0611750000000003E-3</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A20">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B20" t="s">
-        <v>25</v>
+        <v>59</v>
       </c>
       <c r="C20">
-        <v>5.5929999999999988E-4</v>
+        <v>4.1320000000000001E-4</v>
       </c>
       <c r="D20">
-        <v>1.8683E-3</v>
+        <v>1.536E-3</v>
       </c>
       <c r="E20">
-        <v>6.6320000000000007E-3</v>
+        <v>5.484000000000001E-3</v>
       </c>
       <c r="F20">
-        <v>2.5456199999999991E-2</v>
+        <v>2.1014399999999999E-2</v>
       </c>
       <c r="G20">
-        <v>8.6289499999999998E-3</v>
+        <v>7.1119E-3</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A21">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B21" t="s">
-        <v>26</v>
+        <v>55</v>
       </c>
       <c r="C21">
-        <v>6.6259999999999995E-4</v>
+        <v>4.2939999999999997E-4</v>
       </c>
       <c r="D21">
-        <v>2.8016999999999999E-3</v>
+        <v>1.5827E-3</v>
       </c>
       <c r="E21">
-        <v>8.369699999999999E-3</v>
+        <v>5.6093999999999988E-3</v>
       </c>
       <c r="F21">
-        <v>3.3627499999999998E-2</v>
+        <v>2.1062399999999998E-2</v>
       </c>
       <c r="G21">
-        <v>1.1365375E-2</v>
+        <v>7.1709749999999996E-3</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A22">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B22" t="s">
-        <v>27</v>
+        <v>68</v>
       </c>
       <c r="C22">
-        <v>6.5719999999999993E-4</v>
+        <v>4.7090000000000012E-4</v>
       </c>
       <c r="D22">
-        <v>2.1496000000000002E-3</v>
+        <v>1.6927000000000001E-3</v>
       </c>
       <c r="E22">
-        <v>7.9024999999999981E-3</v>
+        <v>5.5465999999999996E-3</v>
       </c>
       <c r="F22">
-        <v>3.2254400000000003E-2</v>
+        <v>2.1121600000000001E-2</v>
       </c>
       <c r="G22">
-        <v>1.0740925E-2</v>
+        <v>7.2079499999999994E-3</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A23">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B23" t="s">
-        <v>28</v>
+        <v>65</v>
       </c>
       <c r="C23">
-        <v>1.0554E-3</v>
+        <v>4.9719999999999994E-4</v>
       </c>
       <c r="D23">
-        <v>7.1461000000000007E-3</v>
+        <v>1.6561E-3</v>
       </c>
       <c r="E23">
-        <v>5.2188900000000003E-2</v>
+        <v>5.6768000000000001E-3</v>
       </c>
       <c r="F23">
-        <v>0.3518</v>
+        <v>2.1208299999999999E-2</v>
       </c>
       <c r="G23">
-        <v>0.1030476</v>
+        <v>7.2595999999999997E-3</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A24">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B24" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="C24">
-        <v>4.5090000000000001E-4</v>
+        <v>4.771E-4</v>
       </c>
       <c r="D24">
-        <v>1.1095E-3</v>
+        <v>1.3458999999999999E-3</v>
       </c>
       <c r="E24">
-        <v>2.9009999999999999E-3</v>
+        <v>4.9420999999999996E-3</v>
       </c>
       <c r="F24">
-        <v>1.0358900000000001E-2</v>
+        <v>2.3280599999999999E-2</v>
       </c>
       <c r="G24">
-        <v>3.7050749999999999E-3</v>
+        <v>7.5114250000000004E-3</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A25">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B25" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="C25">
-        <v>4.3779999999999991E-4</v>
+        <v>3.5300000000000002E-4</v>
       </c>
       <c r="D25">
-        <v>1.0556000000000001E-3</v>
+        <v>1.3351999999999999E-3</v>
       </c>
       <c r="E25">
-        <v>2.7057000000000001E-3</v>
+        <v>5.4406999999999997E-3</v>
       </c>
       <c r="F25">
-        <v>7.5819999999999976E-3</v>
+        <v>2.29409E-2</v>
       </c>
       <c r="G25">
-        <v>2.9452749999999998E-3</v>
+        <v>7.5174500000000002E-3</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.3">
@@ -2537,91 +2537,91 @@
         <v>3</v>
       </c>
       <c r="B26" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C26">
-        <v>7.118999999999999E-4</v>
+        <v>3.6029999999999998E-4</v>
       </c>
       <c r="D26">
-        <v>2.3173999999999998E-3</v>
+        <v>1.4606E-3</v>
       </c>
       <c r="E26">
-        <v>8.4971000000000005E-3</v>
+        <v>5.6709000000000013E-3</v>
       </c>
       <c r="F26">
-        <v>3.59745E-2</v>
+        <v>2.3449000000000001E-2</v>
       </c>
       <c r="G26">
-        <v>1.1875225E-2</v>
+        <v>7.7351999999999994E-3</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A27">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B27" t="s">
-        <v>32</v>
+        <v>9</v>
       </c>
       <c r="C27">
-        <v>4.0739999999999987E-4</v>
+        <v>3.994E-4</v>
       </c>
       <c r="D27">
-        <v>1.4502E-3</v>
+        <v>1.2551999999999999E-3</v>
       </c>
       <c r="E27">
-        <v>5.7404000000000014E-3</v>
+        <v>4.9544999999999997E-3</v>
       </c>
       <c r="F27">
-        <v>2.41018E-2</v>
+        <v>2.4652299999999999E-2</v>
       </c>
       <c r="G27">
-        <v>7.92495E-3</v>
+        <v>7.8153500000000004E-3</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A28">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B28" t="s">
-        <v>33</v>
+        <v>67</v>
       </c>
       <c r="C28">
-        <v>3.6029999999999998E-4</v>
+        <v>3.9859999999999999E-4</v>
       </c>
       <c r="D28">
-        <v>1.4606E-3</v>
+        <v>1.7210000000000001E-3</v>
       </c>
       <c r="E28">
-        <v>5.6709000000000013E-3</v>
+        <v>6.0322000000000006E-3</v>
       </c>
       <c r="F28">
-        <v>2.3449000000000001E-2</v>
+        <v>2.3288E-2</v>
       </c>
       <c r="G28">
-        <v>7.7351999999999994E-3</v>
+        <v>7.859950000000001E-3</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A29">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B29" t="s">
-        <v>34</v>
+        <v>70</v>
       </c>
       <c r="C29">
-        <v>3.7889999999999999E-4</v>
+        <v>4.2010000000000002E-4</v>
       </c>
       <c r="D29">
-        <v>1.2478999999999999E-3</v>
+        <v>1.7771E-3</v>
       </c>
       <c r="E29">
-        <v>4.7670000000000004E-3</v>
+        <v>6.0873000000000003E-3</v>
       </c>
       <c r="F29">
-        <v>1.79676E-2</v>
+        <v>2.3351299999999998E-2</v>
       </c>
       <c r="G29">
-        <v>6.0903500000000013E-3</v>
+        <v>7.9089499999999997E-3</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.3">
@@ -2629,22 +2629,22 @@
         <v>3</v>
       </c>
       <c r="B30" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="C30">
-        <v>5.1710000000000005E-4</v>
+        <v>4.0739999999999987E-4</v>
       </c>
       <c r="D30">
-        <v>1.4926E-3</v>
+        <v>1.4502E-3</v>
       </c>
       <c r="E30">
-        <v>5.3880999999999998E-3</v>
+        <v>5.7404000000000014E-3</v>
       </c>
       <c r="F30">
-        <v>2.46012E-2</v>
+        <v>2.41018E-2</v>
       </c>
       <c r="G30">
-        <v>7.9997499999999999E-3</v>
+        <v>7.92495E-3</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.3">
@@ -2652,68 +2652,68 @@
         <v>3</v>
       </c>
       <c r="B31" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C31">
-        <v>6.9979999999999999E-4</v>
+        <v>5.1710000000000005E-4</v>
       </c>
       <c r="D31">
-        <v>2.5696E-3</v>
+        <v>1.4926E-3</v>
       </c>
       <c r="E31">
-        <v>1.2660899999999999E-2</v>
+        <v>5.3880999999999998E-3</v>
       </c>
       <c r="F31">
-        <v>7.0278300000000016E-2</v>
+        <v>2.46012E-2</v>
       </c>
       <c r="G31">
-        <v>2.1552149999999999E-2</v>
+        <v>7.9997499999999999E-3</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A32">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B32" t="s">
-        <v>37</v>
+        <v>23</v>
       </c>
       <c r="C32">
-        <v>7.0349999999999992E-4</v>
+        <v>4.3120000000000002E-4</v>
       </c>
       <c r="D32">
-        <v>1.4522000000000001E-3</v>
+        <v>1.6272999999999999E-3</v>
       </c>
       <c r="E32">
-        <v>6.2464000000000009E-3</v>
+        <v>6.1433999999999994E-3</v>
       </c>
       <c r="F32">
-        <v>6.2362699999999993E-2</v>
+        <v>2.3925700000000001E-2</v>
       </c>
       <c r="G32">
-        <v>1.7691200000000001E-2</v>
+        <v>8.0318999999999998E-3</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A33">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B33" t="s">
-        <v>38</v>
+        <v>52</v>
       </c>
       <c r="C33">
-        <v>6.5550000000000005E-4</v>
+        <v>4.061E-4</v>
       </c>
       <c r="D33">
-        <v>3.3536999999999998E-3</v>
+        <v>1.5590000000000001E-3</v>
       </c>
       <c r="E33">
-        <v>2.1119700000000002E-2</v>
+        <v>5.9854000000000001E-3</v>
       </c>
       <c r="F33">
-        <v>0.15666189999999999</v>
+        <v>2.4545299999999999E-2</v>
       </c>
       <c r="G33">
-        <v>4.5447699999999987E-2</v>
+        <v>8.1239499999999996E-3</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.3">
@@ -2721,68 +2721,68 @@
         <v>3</v>
       </c>
       <c r="B34" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C34">
-        <v>4.8859999999999995E-4</v>
+        <v>4.462E-4</v>
       </c>
       <c r="D34">
-        <v>2.0677999999999998E-3</v>
+        <v>1.7449E-3</v>
       </c>
       <c r="E34">
-        <v>6.5528999999999987E-3</v>
+        <v>6.2365000000000007E-3</v>
       </c>
       <c r="F34">
-        <v>2.6191300000000001E-2</v>
+        <v>2.40708E-2</v>
       </c>
       <c r="G34">
-        <v>8.8251500000000004E-3</v>
+        <v>8.1245999999999992E-3</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A35">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B35" t="s">
-        <v>40</v>
+        <v>18</v>
       </c>
       <c r="C35">
-        <v>4.8479999999999991E-4</v>
+        <v>4.4599999999999989E-4</v>
       </c>
       <c r="D35">
-        <v>2.038799999999999E-3</v>
+        <v>1.3523000000000001E-3</v>
       </c>
       <c r="E35">
-        <v>7.4097E-3</v>
+        <v>5.3819999999999996E-3</v>
       </c>
       <c r="F35">
-        <v>2.8261399999999999E-2</v>
+        <v>2.61032E-2</v>
       </c>
       <c r="G35">
-        <v>9.5486749999999995E-3</v>
+        <v>8.3208750000000001E-3</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A36">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B36" t="s">
-        <v>41</v>
+        <v>25</v>
       </c>
       <c r="C36">
-        <v>4.462E-4</v>
+        <v>5.5929999999999988E-4</v>
       </c>
       <c r="D36">
-        <v>1.7449E-3</v>
+        <v>1.8683E-3</v>
       </c>
       <c r="E36">
-        <v>6.2365000000000007E-3</v>
+        <v>6.6320000000000007E-3</v>
       </c>
       <c r="F36">
-        <v>2.40708E-2</v>
+        <v>2.5456199999999991E-2</v>
       </c>
       <c r="G36">
-        <v>8.1245999999999992E-3</v>
+        <v>8.6289499999999998E-3</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.3">
@@ -2790,45 +2790,45 @@
         <v>3</v>
       </c>
       <c r="B37" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="C37">
-        <v>3.724E-4</v>
+        <v>5.7519999999999989E-4</v>
       </c>
       <c r="D37">
-        <v>1.4882000000000001E-3</v>
+        <v>1.8893E-3</v>
       </c>
       <c r="E37">
-        <v>5.3800000000000002E-3</v>
+        <v>6.7295999999999996E-3</v>
       </c>
       <c r="F37">
-        <v>2.1004100000000001E-2</v>
+        <v>2.54348E-2</v>
       </c>
       <c r="G37">
-        <v>7.0611750000000003E-3</v>
+        <v>8.657225000000001E-3</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A38">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B38" t="s">
-        <v>43</v>
+        <v>54</v>
       </c>
       <c r="C38">
-        <v>3.9449999999999999E-4</v>
+        <v>5.109E-4</v>
       </c>
       <c r="D38">
-        <v>1.1393E-3</v>
+        <v>2.1134000000000001E-3</v>
       </c>
       <c r="E38">
-        <v>3.9068999999999996E-3</v>
+        <v>6.7102000000000012E-3</v>
       </c>
       <c r="F38">
-        <v>1.6859499999999999E-2</v>
+        <v>2.5945599999999999E-2</v>
       </c>
       <c r="G38">
-        <v>5.5750499999999998E-3</v>
+        <v>8.8200250000000004E-3</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.3">
@@ -2836,91 +2836,91 @@
         <v>3</v>
       </c>
       <c r="B39" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="C39">
-        <v>3.6699999999999998E-4</v>
+        <v>4.8859999999999995E-4</v>
       </c>
       <c r="D39">
-        <v>1.0801000000000001E-3</v>
+        <v>2.0677999999999998E-3</v>
       </c>
       <c r="E39">
-        <v>3.8421000000000002E-3</v>
+        <v>6.5528999999999987E-3</v>
       </c>
       <c r="F39">
-        <v>1.6745800000000002E-2</v>
+        <v>2.6191300000000001E-2</v>
       </c>
       <c r="G39">
-        <v>5.5087499999999998E-3</v>
+        <v>8.8251500000000004E-3</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A40">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B40" t="s">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="C40">
-        <v>3.9869999999999988E-4</v>
+        <v>4.663E-4</v>
       </c>
       <c r="D40">
-        <v>1.2049999999999999E-3</v>
+        <v>2.1857999999999999E-3</v>
       </c>
       <c r="E40">
-        <v>3.8639E-3</v>
+        <v>7.0521999999999998E-3</v>
       </c>
       <c r="F40">
-        <v>1.43263E-2</v>
+        <v>2.68942E-2</v>
       </c>
       <c r="G40">
-        <v>4.9484750000000008E-3</v>
+        <v>9.1496249999999998E-3</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A41">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B41" t="s">
-        <v>46</v>
+        <v>66</v>
       </c>
       <c r="C41">
-        <v>5.7519999999999989E-4</v>
+        <v>5.0040000000000002E-4</v>
       </c>
       <c r="D41">
-        <v>1.8893E-3</v>
+        <v>2.3032999999999999E-3</v>
       </c>
       <c r="E41">
-        <v>6.7295999999999996E-3</v>
+        <v>7.1644999999999999E-3</v>
       </c>
       <c r="F41">
-        <v>2.54348E-2</v>
+        <v>2.70443E-2</v>
       </c>
       <c r="G41">
-        <v>8.657225000000001E-3</v>
+        <v>9.2531250000000009E-3</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A42">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B42" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="C42">
-        <v>5.5540000000000006E-4</v>
+        <v>7.2070000000000001E-4</v>
       </c>
       <c r="D42">
-        <v>2.3151999999999999E-3</v>
+        <v>1.3391E-3</v>
       </c>
       <c r="E42">
-        <v>9.4991999999999993E-3</v>
+        <v>3.7751999999999998E-3</v>
       </c>
       <c r="F42">
-        <v>2.9205399999999999E-2</v>
+        <v>3.2163700000000003E-2</v>
       </c>
       <c r="G42">
-        <v>1.03938E-2</v>
+        <v>9.4996750000000008E-3</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.3">
@@ -2928,22 +2928,22 @@
         <v>3</v>
       </c>
       <c r="B43" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="C43">
-        <v>6.8390000000000009E-4</v>
+        <v>4.8479999999999991E-4</v>
       </c>
       <c r="D43">
-        <v>2.2204999999999998E-3</v>
+        <v>2.038799999999999E-3</v>
       </c>
       <c r="E43">
-        <v>8.0055000000000005E-3</v>
+        <v>7.4097E-3</v>
       </c>
       <c r="F43">
-        <v>3.2378299999999999E-2</v>
+        <v>2.8261399999999999E-2</v>
       </c>
       <c r="G43">
-        <v>1.082205E-2</v>
+        <v>9.5486749999999995E-3</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.3">
@@ -2951,45 +2951,45 @@
         <v>4</v>
       </c>
       <c r="B44" t="s">
-        <v>49</v>
+        <v>57</v>
       </c>
       <c r="C44">
-        <v>4.7590000000000002E-4</v>
+        <v>5.2150000000000005E-4</v>
       </c>
       <c r="D44">
-        <v>1.1734E-3</v>
+        <v>2.1110999999999999E-3</v>
       </c>
       <c r="E44">
-        <v>3.0314999999999999E-3</v>
+        <v>7.4578999999999991E-3</v>
       </c>
       <c r="F44">
-        <v>8.4294999999999995E-3</v>
+        <v>2.8443400000000001E-2</v>
       </c>
       <c r="G44">
-        <v>3.277575E-3</v>
+        <v>9.633474999999999E-3</v>
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A45">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B45" t="s">
-        <v>50</v>
+        <v>64</v>
       </c>
       <c r="C45">
-        <v>7.6619999999999998E-4</v>
+        <v>7.7340000000000015E-4</v>
       </c>
       <c r="D45">
-        <v>2.6565E-3</v>
+        <v>1.5016000000000001E-3</v>
       </c>
       <c r="E45">
-        <v>8.7022999999999996E-3</v>
+        <v>4.0088999999999993E-3</v>
       </c>
       <c r="F45">
-        <v>3.7644900000000002E-2</v>
+        <v>3.347E-2</v>
       </c>
       <c r="G45">
-        <v>1.2442475E-2</v>
+        <v>9.9384750000000004E-3</v>
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.3">
@@ -2997,160 +2997,160 @@
         <v>4</v>
       </c>
       <c r="B46" t="s">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="C46">
-        <v>7.2070000000000001E-4</v>
+        <v>5.8029999999999996E-4</v>
       </c>
       <c r="D46">
-        <v>1.3391E-3</v>
+        <v>2.3359000000000001E-3</v>
       </c>
       <c r="E46">
-        <v>3.7751999999999998E-3</v>
+        <v>8.7091000000000009E-3</v>
       </c>
       <c r="F46">
-        <v>3.2163700000000003E-2</v>
+        <v>2.9571699999999999E-2</v>
       </c>
       <c r="G46">
-        <v>9.4996750000000008E-3</v>
+        <v>1.0299249999999999E-2</v>
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A47">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B47" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="C47">
-        <v>4.061E-4</v>
+        <v>5.5540000000000006E-4</v>
       </c>
       <c r="D47">
-        <v>1.5590000000000001E-3</v>
+        <v>2.3151999999999999E-3</v>
       </c>
       <c r="E47">
-        <v>5.9854000000000001E-3</v>
+        <v>9.4991999999999993E-3</v>
       </c>
       <c r="F47">
-        <v>2.4545299999999999E-2</v>
+        <v>2.9205399999999999E-2</v>
       </c>
       <c r="G47">
-        <v>8.1239499999999996E-3</v>
+        <v>1.03938E-2</v>
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A48">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B48" t="s">
-        <v>53</v>
+        <v>27</v>
       </c>
       <c r="C48">
-        <v>7.5100000000000004E-4</v>
+        <v>6.5719999999999993E-4</v>
       </c>
       <c r="D48">
-        <v>1.5441999999999999E-3</v>
+        <v>2.1496000000000002E-3</v>
       </c>
       <c r="E48">
-        <v>6.4873999999999999E-3</v>
+        <v>7.9024999999999981E-3</v>
       </c>
       <c r="F48">
-        <v>6.3623899999999997E-2</v>
+        <v>3.2254400000000003E-2</v>
       </c>
       <c r="G48">
-        <v>1.8101625E-2</v>
+        <v>1.0740925E-2</v>
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A49">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B49" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="C49">
-        <v>5.109E-4</v>
+        <v>6.8390000000000009E-4</v>
       </c>
       <c r="D49">
-        <v>2.1134000000000001E-3</v>
+        <v>2.2204999999999998E-3</v>
       </c>
       <c r="E49">
-        <v>6.7102000000000012E-3</v>
+        <v>8.0055000000000005E-3</v>
       </c>
       <c r="F49">
-        <v>2.5945599999999999E-2</v>
+        <v>3.2378299999999999E-2</v>
       </c>
       <c r="G49">
-        <v>8.8200250000000004E-3</v>
+        <v>1.082205E-2</v>
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A50">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B50" t="s">
-        <v>55</v>
+        <v>11</v>
       </c>
       <c r="C50">
-        <v>4.2939999999999997E-4</v>
+        <v>6.355E-4</v>
       </c>
       <c r="D50">
-        <v>1.5827E-3</v>
+        <v>2.5883999999999998E-3</v>
       </c>
       <c r="E50">
-        <v>5.6093999999999988E-3</v>
+        <v>8.2772000000000019E-3</v>
       </c>
       <c r="F50">
-        <v>2.1062399999999998E-2</v>
+        <v>3.3306000000000002E-2</v>
       </c>
       <c r="G50">
-        <v>7.1709749999999996E-3</v>
+        <v>1.1201775000000001E-2</v>
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A51">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B51" t="s">
-        <v>56</v>
+        <v>26</v>
       </c>
       <c r="C51">
-        <v>4.663E-4</v>
+        <v>6.6259999999999995E-4</v>
       </c>
       <c r="D51">
-        <v>2.1857999999999999E-3</v>
+        <v>2.8016999999999999E-3</v>
       </c>
       <c r="E51">
-        <v>7.0521999999999998E-3</v>
+        <v>8.369699999999999E-3</v>
       </c>
       <c r="F51">
-        <v>2.68942E-2</v>
+        <v>3.3627499999999998E-2</v>
       </c>
       <c r="G51">
-        <v>9.1496249999999998E-3</v>
+        <v>1.1365375E-2</v>
       </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A52">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B52" t="s">
-        <v>57</v>
+        <v>31</v>
       </c>
       <c r="C52">
-        <v>5.2150000000000005E-4</v>
+        <v>7.118999999999999E-4</v>
       </c>
       <c r="D52">
-        <v>2.1110999999999999E-3</v>
+        <v>2.3173999999999998E-3</v>
       </c>
       <c r="E52">
-        <v>7.4578999999999991E-3</v>
+        <v>8.4971000000000005E-3</v>
       </c>
       <c r="F52">
-        <v>2.8443400000000001E-2</v>
+        <v>3.59745E-2</v>
       </c>
       <c r="G52">
-        <v>9.633474999999999E-3</v>
+        <v>1.1875225E-2</v>
       </c>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.3">
@@ -3158,45 +3158,45 @@
         <v>4</v>
       </c>
       <c r="B53" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="C53">
-        <v>4.3950000000000011E-4</v>
+        <v>7.6619999999999998E-4</v>
       </c>
       <c r="D53">
-        <v>1.5931999999999999E-3</v>
+        <v>2.6565E-3</v>
       </c>
       <c r="E53">
-        <v>5.4063999999999996E-3</v>
+        <v>8.7022999999999996E-3</v>
       </c>
       <c r="F53">
-        <v>2.0717300000000001E-2</v>
+        <v>3.7644900000000002E-2</v>
       </c>
       <c r="G53">
-        <v>7.0391000000000004E-3</v>
+        <v>1.2442475E-2</v>
       </c>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A54">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B54" t="s">
-        <v>59</v>
+        <v>37</v>
       </c>
       <c r="C54">
-        <v>4.1320000000000001E-4</v>
+        <v>7.0349999999999992E-4</v>
       </c>
       <c r="D54">
-        <v>1.536E-3</v>
+        <v>1.4522000000000001E-3</v>
       </c>
       <c r="E54">
-        <v>5.484000000000001E-3</v>
+        <v>6.2464000000000009E-3</v>
       </c>
       <c r="F54">
-        <v>2.1014399999999999E-2</v>
+        <v>6.2362699999999993E-2</v>
       </c>
       <c r="G54">
-        <v>7.1119E-3</v>
+        <v>1.7691200000000001E-2</v>
       </c>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.3">
@@ -3204,259 +3204,258 @@
         <v>4</v>
       </c>
       <c r="B55" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="C55">
-        <v>4.0170000000000001E-4</v>
+        <v>7.5100000000000004E-4</v>
       </c>
       <c r="D55">
-        <v>1.1467999999999999E-3</v>
+        <v>1.5441999999999999E-3</v>
       </c>
       <c r="E55">
-        <v>3.9153000000000009E-3</v>
+        <v>6.4873999999999999E-3</v>
       </c>
       <c r="F55">
-        <v>1.6862800000000001E-2</v>
+        <v>6.3623899999999997E-2</v>
       </c>
       <c r="G55">
-        <v>5.5816499999999996E-3</v>
+        <v>1.8101625E-2</v>
       </c>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A56">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B56" t="s">
-        <v>61</v>
+        <v>20</v>
       </c>
       <c r="C56">
-        <v>4.2910000000000008E-4</v>
+        <v>6.5799999999999995E-4</v>
       </c>
       <c r="D56">
-        <v>1.2449E-3</v>
+        <v>2.4927E-3</v>
       </c>
       <c r="E56">
-        <v>3.9409999999999992E-3</v>
+        <v>1.2087199999999999E-2</v>
       </c>
       <c r="F56">
-        <v>1.46222E-2</v>
+        <v>6.86977E-2</v>
       </c>
       <c r="G56">
-        <v>5.0592999999999992E-3</v>
+        <v>2.09839E-2</v>
       </c>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A57">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B57" t="s">
-        <v>62</v>
+        <v>36</v>
       </c>
       <c r="C57">
-        <v>4.104E-4</v>
+        <v>6.9979999999999999E-4</v>
       </c>
       <c r="D57">
-        <v>1.235E-3</v>
+        <v>2.5696E-3</v>
       </c>
       <c r="E57">
-        <v>3.8451000000000002E-3</v>
+        <v>1.2660899999999999E-2</v>
       </c>
       <c r="F57">
-        <v>1.44146E-2</v>
+        <v>7.0278300000000016E-2</v>
       </c>
       <c r="G57">
-        <v>4.9762749999999996E-3</v>
+        <v>2.1552149999999999E-2</v>
       </c>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A58">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B58" t="s">
-        <v>63</v>
+        <v>22</v>
       </c>
       <c r="C58">
-        <v>5.8029999999999996E-4</v>
+        <v>5.888E-4</v>
       </c>
       <c r="D58">
-        <v>2.3359000000000001E-3</v>
+        <v>3.2255999999999999E-3</v>
       </c>
       <c r="E58">
-        <v>8.7091000000000009E-3</v>
+        <v>2.2238000000000001E-2</v>
       </c>
       <c r="F58">
-        <v>2.9571699999999999E-2</v>
+        <v>0.154914</v>
       </c>
       <c r="G58">
-        <v>1.0299249999999999E-2</v>
+        <v>4.5241600000000007E-2</v>
       </c>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A59">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B59" t="s">
-        <v>64</v>
+        <v>38</v>
       </c>
       <c r="C59">
-        <v>7.7340000000000015E-4</v>
+        <v>6.5550000000000005E-4</v>
       </c>
       <c r="D59">
-        <v>1.5016000000000001E-3</v>
+        <v>3.3536999999999998E-3</v>
       </c>
       <c r="E59">
-        <v>4.0088999999999993E-3</v>
+        <v>2.1119700000000002E-2</v>
       </c>
       <c r="F59">
-        <v>3.347E-2</v>
+        <v>0.15666189999999999</v>
       </c>
       <c r="G59">
-        <v>9.9384750000000004E-3</v>
+        <v>4.5447699999999987E-2</v>
       </c>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A60">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B60" t="s">
-        <v>65</v>
+        <v>21</v>
       </c>
       <c r="C60">
-        <v>4.9719999999999994E-4</v>
+        <v>6.6390000000000004E-4</v>
       </c>
       <c r="D60">
-        <v>1.6561E-3</v>
+        <v>3.7580000000000001E-3</v>
       </c>
       <c r="E60">
-        <v>5.6768000000000001E-3</v>
+        <v>2.53799E-2</v>
       </c>
       <c r="F60">
-        <v>2.1208299999999999E-2</v>
+        <v>0.1650634</v>
       </c>
       <c r="G60">
-        <v>7.2595999999999997E-3</v>
+        <v>4.8716299999999997E-2</v>
       </c>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A61">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="B61" t="s">
-        <v>66</v>
+        <v>10</v>
       </c>
       <c r="C61">
-        <v>5.0040000000000002E-4</v>
+        <v>6.2369999999999993E-4</v>
       </c>
       <c r="D61">
-        <v>2.3032999999999999E-3</v>
+        <v>3.6500999999999999E-3</v>
       </c>
       <c r="E61">
-        <v>7.1644999999999999E-3</v>
+        <v>2.4654599999999999E-2</v>
       </c>
       <c r="F61">
-        <v>2.70443E-2</v>
+        <v>0.16601550000000001</v>
       </c>
       <c r="G61">
-        <v>9.2531250000000009E-3</v>
+        <v>4.8735975000000001E-2</v>
       </c>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A62">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="B62" t="s">
-        <v>67</v>
+        <v>7</v>
       </c>
       <c r="C62">
-        <v>3.9859999999999999E-4</v>
+        <v>8.2129999999999996E-4</v>
       </c>
       <c r="D62">
-        <v>1.7210000000000001E-3</v>
+        <v>5.8412000000000004E-3</v>
       </c>
       <c r="E62">
-        <v>6.0322000000000006E-3</v>
+        <v>5.0274399999999997E-2</v>
       </c>
       <c r="F62">
-        <v>2.3288E-2</v>
+        <v>0.3459566</v>
       </c>
       <c r="G62">
-        <v>7.859950000000001E-3</v>
+        <v>0.100723375</v>
       </c>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A63">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="B63" t="s">
-        <v>68</v>
+        <v>12</v>
       </c>
       <c r="C63">
-        <v>4.7090000000000012E-4</v>
+        <v>8.5330000000000009E-4</v>
       </c>
       <c r="D63">
-        <v>1.6927000000000001E-3</v>
+        <v>6.0492999999999996E-3</v>
       </c>
       <c r="E63">
-        <v>5.5465999999999996E-3</v>
+        <v>5.0293900000000002E-2</v>
       </c>
       <c r="F63">
-        <v>2.1121600000000001E-2</v>
+        <v>0.34812510000000002</v>
       </c>
       <c r="G63">
-        <v>7.2079499999999994E-3</v>
+        <v>0.1013304</v>
       </c>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A64">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="B64" t="s">
-        <v>69</v>
+        <v>13</v>
       </c>
       <c r="C64">
-        <v>4.4539999999999998E-4</v>
+        <v>1.0300999999999999E-3</v>
       </c>
       <c r="D64">
-        <v>1.24E-3</v>
+        <v>6.9851999999999996E-3</v>
       </c>
       <c r="E64">
-        <v>3.9023E-3</v>
+        <v>5.16058E-2</v>
       </c>
       <c r="F64">
-        <v>1.44753E-2</v>
+        <v>0.35120089999999998</v>
       </c>
       <c r="G64">
-        <v>5.0157500000000002E-3</v>
+        <v>0.10270550000000001</v>
       </c>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A65">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="B65" t="s">
-        <v>70</v>
+        <v>28</v>
       </c>
       <c r="C65">
-        <v>4.2010000000000002E-4</v>
+        <v>1.0554E-3</v>
       </c>
       <c r="D65">
-        <v>1.7771E-3</v>
+        <v>7.1461000000000007E-3</v>
       </c>
       <c r="E65">
-        <v>6.0873000000000003E-3</v>
+        <v>5.2188900000000003E-2</v>
       </c>
       <c r="F65">
-        <v>2.3351299999999998E-2</v>
+        <v>0.3518</v>
       </c>
       <c r="G65">
-        <v>7.9089499999999997E-3</v>
+        <v>0.1030476</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:G65" xr:uid="{00000000-0001-0000-0000-000000000000}">
     <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G65">
-      <sortCondition ref="A2:A65"/>
-      <sortCondition ref="B2:B65"/>
+      <sortCondition ref="G1:G65"/>
     </sortState>
   </autoFilter>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -9536,7 +9535,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:G65"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="Q4" sqref="Q4"/>
     </sheetView>
   </sheetViews>
@@ -9570,33 +9569,33 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="C2">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D2">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="E2">
-        <v>24</v>
+        <v>2</v>
       </c>
       <c r="F2">
-        <v>42</v>
+        <v>2</v>
       </c>
       <c r="G2">
-        <v>20.75</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="C3">
         <v>2</v>
@@ -9616,125 +9615,125 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="C4">
         <v>2</v>
       </c>
       <c r="D4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G4">
-        <v>2.75</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B5" t="s">
-        <v>10</v>
+        <v>26</v>
       </c>
       <c r="C5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D5">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E5">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="F5">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G5">
-        <v>4.25</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B6" t="s">
-        <v>8</v>
+        <v>28</v>
       </c>
       <c r="C6">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D6">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E6">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="F6">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G6">
-        <v>4.75</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B7" t="s">
-        <v>13</v>
+        <v>34</v>
       </c>
       <c r="C7">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D7">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="E7">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="F7">
-        <v>22</v>
+        <v>2</v>
       </c>
       <c r="G7">
-        <v>12</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B8" t="s">
-        <v>9</v>
+        <v>38</v>
       </c>
       <c r="C8">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="D8">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="E8">
-        <v>17</v>
+        <v>2</v>
       </c>
       <c r="F8">
-        <v>23</v>
+        <v>2</v>
       </c>
       <c r="G8">
-        <v>14.25</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B9" t="s">
-        <v>16</v>
+        <v>41</v>
       </c>
       <c r="C9">
         <v>2</v>
@@ -9754,10 +9753,10 @@
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B10" t="s">
-        <v>21</v>
+        <v>46</v>
       </c>
       <c r="C10">
         <v>2</v>
@@ -9777,10 +9776,10 @@
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B11" t="s">
-        <v>26</v>
+        <v>48</v>
       </c>
       <c r="C11">
         <v>2</v>
@@ -9800,13 +9799,13 @@
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B12" t="s">
-        <v>28</v>
+        <v>65</v>
       </c>
       <c r="C12">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D12">
         <v>2</v>
@@ -9818,38 +9817,38 @@
         <v>2</v>
       </c>
       <c r="G12">
-        <v>2</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B13" t="s">
-        <v>25</v>
+        <v>68</v>
       </c>
       <c r="C13">
         <v>2</v>
       </c>
       <c r="D13">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E13">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F13">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G13">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B14" t="s">
-        <v>27</v>
+        <v>11</v>
       </c>
       <c r="C14">
         <v>2</v>
@@ -9872,22 +9871,22 @@
         <v>2</v>
       </c>
       <c r="B15" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C15">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D15">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E15">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F15">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G15">
-        <v>3.75</v>
+        <v>2.75</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.3">
@@ -9895,68 +9894,68 @@
         <v>2</v>
       </c>
       <c r="B16" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="C16">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D16">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E16">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F16">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G16">
-        <v>4</v>
+        <v>2.75</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B17" t="s">
-        <v>22</v>
+        <v>59</v>
       </c>
       <c r="C17">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D17">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E17">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="F17">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G17">
-        <v>4.25</v>
+        <v>2.75</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B18" t="s">
-        <v>17</v>
+        <v>63</v>
       </c>
       <c r="C18">
+        <v>2</v>
+      </c>
+      <c r="D18">
+        <v>2</v>
+      </c>
+      <c r="E18">
+        <v>4</v>
+      </c>
+      <c r="F18">
         <v>5</v>
       </c>
-      <c r="D18">
-        <v>5</v>
-      </c>
-      <c r="E18">
-        <v>6</v>
-      </c>
-      <c r="F18">
-        <v>6</v>
-      </c>
       <c r="G18">
-        <v>5.5</v>
+        <v>3.25</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.3">
@@ -9964,22 +9963,22 @@
         <v>2</v>
       </c>
       <c r="B19" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C19">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D19">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="E19">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="F19">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="G19">
-        <v>6.75</v>
+        <v>3.75</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.3">
@@ -9987,137 +9986,137 @@
         <v>2</v>
       </c>
       <c r="B20" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="C20">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D20">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E20">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="F20">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="G20">
-        <v>8.5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A21">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B21" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="C21">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="D21">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="E21">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="F21">
-        <v>17</v>
+        <v>4</v>
       </c>
       <c r="G21">
-        <v>10</v>
+        <v>4</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A22">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B22" t="s">
-        <v>15</v>
+        <v>35</v>
       </c>
       <c r="C22">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="D22">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="E22">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="F22">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="G22">
-        <v>11.5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A23">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B23" t="s">
-        <v>20</v>
+        <v>49</v>
       </c>
       <c r="C23">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="D23">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="E23">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="F23">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="G23">
-        <v>12.75</v>
+        <v>4</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A24">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B24" t="s">
-        <v>34</v>
+        <v>10</v>
       </c>
       <c r="C24">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D24">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E24">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="F24">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G24">
-        <v>2</v>
+        <v>4.25</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A25">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B25" t="s">
-        <v>38</v>
+        <v>22</v>
       </c>
       <c r="C25">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D25">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E25">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="F25">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G25">
-        <v>2</v>
+        <v>4.25</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.3">
@@ -10125,68 +10124,68 @@
         <v>3</v>
       </c>
       <c r="B26" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C26">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D26">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E26">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F26">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G26">
-        <v>2</v>
+        <v>4.25</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A27">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B27" t="s">
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="C27">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D27">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E27">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F27">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G27">
-        <v>2</v>
+        <v>4.25</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A28">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B28" t="s">
-        <v>48</v>
+        <v>58</v>
       </c>
       <c r="C28">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D28">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="E28">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F28">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G28">
-        <v>2</v>
+        <v>4.25</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.3">
@@ -10194,33 +10193,33 @@
         <v>3</v>
       </c>
       <c r="B29" t="s">
-        <v>29</v>
+        <v>47</v>
       </c>
       <c r="C29">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D29">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E29">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="F29">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G29">
-        <v>4</v>
+        <v>4.5</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A30">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B30" t="s">
-        <v>35</v>
+        <v>55</v>
       </c>
       <c r="C30">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D30">
         <v>4</v>
@@ -10232,15 +10231,15 @@
         <v>4</v>
       </c>
       <c r="G30">
-        <v>4</v>
+        <v>4.5</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A31">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B31" t="s">
-        <v>42</v>
+        <v>8</v>
       </c>
       <c r="C31">
         <v>5</v>
@@ -10249,13 +10248,13 @@
         <v>4</v>
       </c>
       <c r="E31">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="F31">
         <v>4</v>
       </c>
       <c r="G31">
-        <v>4.25</v>
+        <v>4.75</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.3">
@@ -10263,39 +10262,39 @@
         <v>3</v>
       </c>
       <c r="B32" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="C32">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D32">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E32">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F32">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="G32">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A33">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B33" t="s">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="C33">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D33">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E33">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F33">
         <v>5</v>
@@ -10306,16 +10305,16 @@
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A34">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B34" t="s">
-        <v>32</v>
+        <v>57</v>
       </c>
       <c r="C34">
         <v>5</v>
       </c>
       <c r="D34">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E34">
         <v>5</v>
@@ -10324,18 +10323,18 @@
         <v>5</v>
       </c>
       <c r="G34">
-        <v>5</v>
+        <v>4.75</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A35">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B35" t="s">
-        <v>36</v>
+        <v>60</v>
       </c>
       <c r="C35">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D35">
         <v>5</v>
@@ -10347,99 +10346,99 @@
         <v>5</v>
       </c>
       <c r="G35">
-        <v>5.25</v>
+        <v>4.75</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A36">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B36" t="s">
-        <v>39</v>
+        <v>61</v>
       </c>
       <c r="C36">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="D36">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E36">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F36">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G36">
-        <v>6.5</v>
+        <v>4.75</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A37">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B37" t="s">
-        <v>44</v>
+        <v>64</v>
       </c>
       <c r="C37">
         <v>6</v>
       </c>
       <c r="D37">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="E37">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="F37">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="G37">
-        <v>6.75</v>
+        <v>4.75</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A38">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B38" t="s">
-        <v>45</v>
+        <v>66</v>
       </c>
       <c r="C38">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D38">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="E38">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="F38">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="G38">
-        <v>6.75</v>
+        <v>4.75</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A39">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B39" t="s">
-        <v>40</v>
+        <v>69</v>
       </c>
       <c r="C39">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="D39">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E39">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="F39">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="G39">
-        <v>7.5</v>
+        <v>4.75</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.3">
@@ -10447,45 +10446,45 @@
         <v>3</v>
       </c>
       <c r="B40" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C40">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D40">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="E40">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="F40">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="G40">
-        <v>8.5</v>
+        <v>5</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A41">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B41" t="s">
-        <v>37</v>
+        <v>52</v>
       </c>
       <c r="C41">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="D41">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="E41">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="F41">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="G41">
-        <v>10.75</v>
+        <v>5</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.3">
@@ -10493,183 +10492,183 @@
         <v>3</v>
       </c>
       <c r="B42" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="C42">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="D42">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="E42">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="F42">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="G42">
-        <v>11.5</v>
+        <v>5.25</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A43">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B43" t="s">
-        <v>31</v>
+        <v>50</v>
       </c>
       <c r="C43">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="D43">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="E43">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="F43">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="G43">
-        <v>12</v>
+        <v>5.25</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A44">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B44" t="s">
-        <v>59</v>
+        <v>17</v>
       </c>
       <c r="C44">
         <v>5</v>
       </c>
       <c r="D44">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E44">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="F44">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="G44">
-        <v>2.75</v>
+        <v>5.5</v>
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A45">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B45" t="s">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="C45">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D45">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E45">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="F45">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="G45">
-        <v>3.25</v>
+        <v>6.25</v>
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A46">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B46" t="s">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="C46">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="D46">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="E46">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="F46">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="G46">
-        <v>4</v>
+        <v>6.5</v>
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A47">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B47" t="s">
-        <v>54</v>
+        <v>24</v>
       </c>
       <c r="C47">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D47">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="E47">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="F47">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G47">
-        <v>4.25</v>
+        <v>6.75</v>
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A48">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B48" t="s">
-        <v>58</v>
+        <v>44</v>
       </c>
       <c r="C48">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D48">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E48">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="F48">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G48">
-        <v>4.25</v>
+        <v>6.75</v>
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A49">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B49" t="s">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="C49">
         <v>6</v>
       </c>
       <c r="D49">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="E49">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="F49">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G49">
-        <v>4.5</v>
+        <v>6.75</v>
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.3">
@@ -10677,45 +10676,45 @@
         <v>4</v>
       </c>
       <c r="B50" t="s">
-        <v>53</v>
+        <v>62</v>
       </c>
       <c r="C50">
         <v>6</v>
       </c>
       <c r="D50">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="E50">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="F50">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="G50">
-        <v>4.75</v>
+        <v>6.75</v>
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A51">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B51" t="s">
-        <v>57</v>
+        <v>40</v>
       </c>
       <c r="C51">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="D51">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="E51">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="F51">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="G51">
-        <v>4.75</v>
+        <v>7.5</v>
       </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.3">
@@ -10723,91 +10722,91 @@
         <v>4</v>
       </c>
       <c r="B52" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="C52">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="D52">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E52">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="F52">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="G52">
-        <v>4.75</v>
+        <v>7.5</v>
       </c>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A53">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B53" t="s">
-        <v>61</v>
+        <v>14</v>
       </c>
       <c r="C53">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D53">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E53">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="F53">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="G53">
-        <v>4.75</v>
+        <v>8.5</v>
       </c>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A54">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B54" t="s">
-        <v>52</v>
+        <v>30</v>
       </c>
       <c r="C54">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D54">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="E54">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="F54">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="G54">
-        <v>5</v>
+        <v>8.5</v>
       </c>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A55">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B55" t="s">
-        <v>50</v>
+        <v>67</v>
       </c>
       <c r="C55">
+        <v>8</v>
+      </c>
+      <c r="D55">
         <v>6</v>
       </c>
-      <c r="D55">
-        <v>5</v>
-      </c>
       <c r="E55">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="F55">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="G55">
-        <v>5.25</v>
+        <v>8.5</v>
       </c>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.3">
@@ -10815,235 +10814,235 @@
         <v>4</v>
       </c>
       <c r="B56" t="s">
-        <v>62</v>
+        <v>51</v>
       </c>
       <c r="C56">
+        <v>11</v>
+      </c>
+      <c r="D56">
         <v>6</v>
       </c>
-      <c r="D56">
-        <v>7</v>
-      </c>
       <c r="E56">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="F56">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="G56">
-        <v>6.75</v>
+        <v>9.75</v>
       </c>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A57">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B57" t="s">
-        <v>56</v>
+        <v>19</v>
       </c>
       <c r="C57">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D57">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E57">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F57">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="G57">
-        <v>7.5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A58">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B58" t="s">
-        <v>51</v>
+        <v>37</v>
       </c>
       <c r="C58">
+        <v>8</v>
+      </c>
+      <c r="D58">
+        <v>10</v>
+      </c>
+      <c r="E58">
+        <v>14</v>
+      </c>
+      <c r="F58">
         <v>11</v>
       </c>
-      <c r="D58">
-        <v>6</v>
-      </c>
-      <c r="E58">
-        <v>10</v>
-      </c>
-      <c r="F58">
-        <v>12</v>
-      </c>
       <c r="G58">
-        <v>9.75</v>
+        <v>10.75</v>
       </c>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A59">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B59" t="s">
-        <v>65</v>
+        <v>15</v>
       </c>
       <c r="C59">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="D59">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="E59">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="F59">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="G59">
-        <v>2.5</v>
+        <v>11.5</v>
       </c>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A60">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B60" t="s">
-        <v>68</v>
+        <v>33</v>
       </c>
       <c r="C60">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="D60">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="E60">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="F60">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="G60">
-        <v>2.5</v>
+        <v>11.5</v>
       </c>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A61">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="B61" t="s">
-        <v>64</v>
+        <v>13</v>
       </c>
       <c r="C61">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D61">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="E61">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="F61">
-        <v>5</v>
+        <v>22</v>
       </c>
       <c r="G61">
-        <v>4.75</v>
+        <v>12</v>
       </c>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A62">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B62" t="s">
-        <v>66</v>
+        <v>31</v>
       </c>
       <c r="C62">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="D62">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="E62">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="F62">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="G62">
-        <v>4.75</v>
+        <v>12</v>
       </c>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A63">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B63" t="s">
-        <v>69</v>
+        <v>20</v>
       </c>
       <c r="C63">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="D63">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="E63">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="F63">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="G63">
-        <v>4.75</v>
+        <v>12.75</v>
       </c>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A64">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="B64" t="s">
-        <v>67</v>
+        <v>9</v>
       </c>
       <c r="C64">
         <v>8</v>
       </c>
       <c r="D64">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="E64">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="F64">
-        <v>10</v>
+        <v>23</v>
       </c>
       <c r="G64">
-        <v>8.5</v>
+        <v>14.25</v>
       </c>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A65">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="B65" t="s">
-        <v>70</v>
+        <v>7</v>
       </c>
       <c r="C65">
         <v>5</v>
       </c>
       <c r="D65">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="E65">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="F65">
-        <v>8</v>
+        <v>42</v>
       </c>
       <c r="G65">
-        <v>6.25</v>
+        <v>20.75</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:G65" xr:uid="{00000000-0001-0000-0500-000000000000}">
     <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G65">
-      <sortCondition ref="A1:A65"/>
+      <sortCondition ref="G1:G65"/>
     </sortState>
   </autoFilter>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
